--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2816063.352740781</v>
+        <v>2844270.023804621</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7157393.485980359</v>
+        <v>8018174.768398623</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7650301.652213327</v>
+        <v>7470562.937370634</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.7943403171763</v>
+        <v>153.0802827580987</v>
       </c>
       <c r="C11" t="n">
-        <v>109.0925009241876</v>
+        <v>117.3784433651099</v>
       </c>
       <c r="D11" t="n">
-        <v>93.26547012435455</v>
+        <v>101.5514125652769</v>
       </c>
       <c r="E11" t="n">
-        <v>138.8634348481778</v>
+        <v>147.1493772891001</v>
       </c>
       <c r="F11" t="n">
-        <v>183.0553091225356</v>
+        <v>191.3412515634579</v>
       </c>
       <c r="G11" t="n">
-        <v>211.5930082067646</v>
+        <v>219.7089945637225</v>
       </c>
       <c r="H11" t="n">
-        <v>143.6645732124669</v>
+        <v>150.209952908489</v>
       </c>
       <c r="I11" t="n">
-        <v>69.26066839705928</v>
+        <v>70.99437891094479</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>181.5755479608364</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.60747695071993</v>
+        <v>38.21741553231467</v>
       </c>
       <c r="S11" t="n">
-        <v>39.57264685251562</v>
+        <v>43.98571503009961</v>
       </c>
       <c r="T11" t="n">
-        <v>6.274923387531089</v>
+        <v>13.81688307089934</v>
       </c>
       <c r="U11" t="n">
-        <v>34.54489392629313</v>
+        <v>42.81723988049831</v>
       </c>
       <c r="V11" t="n">
-        <v>94.85288901208153</v>
+        <v>103.1388314530039</v>
       </c>
       <c r="W11" t="n">
-        <v>103.6369684904301</v>
+        <v>111.9229109313524</v>
       </c>
       <c r="X11" t="n">
-        <v>128.0933462125178</v>
+        <v>136.3792886534402</v>
       </c>
       <c r="Y11" t="n">
-        <v>161.6343181280547</v>
+        <v>169.9202605689771</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.406082362742694</v>
+        <v>9.692024803665021</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.10410154345396</v>
+        <v>17.70097512703853</v>
       </c>
       <c r="T12" t="n">
-        <v>28.03666993250008</v>
+        <v>35.95608243720201</v>
       </c>
       <c r="U12" t="n">
-        <v>44.61722594263276</v>
+        <v>52.89718584923153</v>
       </c>
       <c r="V12" t="n">
-        <v>41.72169674523525</v>
+        <v>50.00763918615758</v>
       </c>
       <c r="W12" t="n">
-        <v>80.96060028546529</v>
+        <v>89.24654272638762</v>
       </c>
       <c r="X12" t="n">
-        <v>25.18158193001503</v>
+        <v>33.46752437093735</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.59601159681958</v>
+        <v>50.88195403774191</v>
       </c>
     </row>
     <row r="13">
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.53999646376468</v>
+        <v>35.39807096480428</v>
       </c>
       <c r="S13" t="n">
-        <v>40.1314233138751</v>
+        <v>47.08877237817893</v>
       </c>
       <c r="T13" t="n">
-        <v>1.958820656253778</v>
+        <v>9.919025545266493</v>
       </c>
       <c r="U13" t="n">
-        <v>79.5751840261444</v>
+        <v>87.85696811534021</v>
       </c>
       <c r="V13" t="n">
-        <v>18.79465659760649</v>
+        <v>27.08059903852882</v>
       </c>
       <c r="W13" t="n">
-        <v>83.90824141753544</v>
+        <v>92.19418385845776</v>
       </c>
       <c r="X13" t="n">
-        <v>1.566748658791454</v>
+        <v>9.85269109971378</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.108847311815651</v>
+        <v>9.394789752737978</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.165124803735</v>
+        <v>153.0802827580987</v>
       </c>
       <c r="C14" t="n">
-        <v>96.46328541074621</v>
+        <v>117.3784433651099</v>
       </c>
       <c r="D14" t="n">
-        <v>80.63625461091317</v>
+        <v>101.5514125652769</v>
       </c>
       <c r="E14" t="n">
-        <v>126.2342193347364</v>
+        <v>147.1493772891001</v>
       </c>
       <c r="F14" t="n">
-        <v>170.4260936090942</v>
+        <v>191.3412515634579</v>
       </c>
       <c r="G14" t="n">
-        <v>198.9637926933232</v>
+        <v>219.7089945637225</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0353576990255</v>
+        <v>150.209952908489</v>
       </c>
       <c r="I14" t="n">
-        <v>56.6314528836179</v>
+        <v>70.99437891094479</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.97826143727855</v>
+        <v>38.21741553231467</v>
       </c>
       <c r="S14" t="n">
-        <v>26.94343133907424</v>
+        <v>43.98571503009961</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>13.81688307089934</v>
       </c>
       <c r="U14" t="n">
-        <v>21.91567841285175</v>
+        <v>42.81723988049831</v>
       </c>
       <c r="V14" t="n">
-        <v>82.22367349864015</v>
+        <v>103.1388314530039</v>
       </c>
       <c r="W14" t="n">
-        <v>91.00775297698868</v>
+        <v>111.9229109313524</v>
       </c>
       <c r="X14" t="n">
-        <v>115.4641306990765</v>
+        <v>136.3792886534402</v>
       </c>
       <c r="Y14" t="n">
-        <v>149.0051026146133</v>
+        <v>169.9202605689771</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9.692024803665021</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>17.70097512703853</v>
       </c>
       <c r="T15" t="n">
-        <v>15.40745441905869</v>
+        <v>35.95608243720201</v>
       </c>
       <c r="U15" t="n">
-        <v>31.98801042919138</v>
+        <v>52.89718584923153</v>
       </c>
       <c r="V15" t="n">
-        <v>29.09248123179387</v>
+        <v>50.00763918615758</v>
       </c>
       <c r="W15" t="n">
-        <v>68.33138477202391</v>
+        <v>89.24654272638762</v>
       </c>
       <c r="X15" t="n">
-        <v>12.55236641657365</v>
+        <v>33.46752437093735</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.9667960833782</v>
+        <v>50.88195403774191</v>
       </c>
     </row>
     <row r="16">
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.9107809503233</v>
+        <v>35.39807096480428</v>
       </c>
       <c r="S16" t="n">
-        <v>27.50220780043372</v>
+        <v>47.08877237817893</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>9.919025545266493</v>
       </c>
       <c r="U16" t="n">
-        <v>66.94596851270302</v>
+        <v>87.85696811534021</v>
       </c>
       <c r="V16" t="n">
-        <v>6.16544108416511</v>
+        <v>27.08059903852882</v>
       </c>
       <c r="W16" t="n">
-        <v>71.27902590409406</v>
+        <v>92.19418385845776</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>9.85269109971378</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.394789752737978</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.165124803735</v>
+        <v>153.0802827580987</v>
       </c>
       <c r="C17" t="n">
-        <v>96.46328541074621</v>
+        <v>117.37844336511</v>
       </c>
       <c r="D17" t="n">
-        <v>80.63625461091317</v>
+        <v>101.5514125652769</v>
       </c>
       <c r="E17" t="n">
-        <v>126.2342193347364</v>
+        <v>147.1493772891002</v>
       </c>
       <c r="F17" t="n">
-        <v>170.4260936090942</v>
+        <v>191.341251563458</v>
       </c>
       <c r="G17" t="n">
-        <v>198.9637926933232</v>
+        <v>219.7089945637225</v>
       </c>
       <c r="H17" t="n">
-        <v>131.0353576990255</v>
+        <v>150.209952908489</v>
       </c>
       <c r="I17" t="n">
-        <v>56.6314528836179</v>
+        <v>70.99437891094485</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.97826143727855</v>
+        <v>38.21741553231473</v>
       </c>
       <c r="S17" t="n">
-        <v>26.94343133907424</v>
+        <v>43.98571503009967</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>13.81688307089939</v>
       </c>
       <c r="U17" t="n">
-        <v>21.91567841285175</v>
+        <v>42.81723988049836</v>
       </c>
       <c r="V17" t="n">
-        <v>82.22367349864015</v>
+        <v>103.1388314530039</v>
       </c>
       <c r="W17" t="n">
-        <v>91.00775297698868</v>
+        <v>111.9229109313524</v>
       </c>
       <c r="X17" t="n">
-        <v>115.4641306990765</v>
+        <v>136.3792886534402</v>
       </c>
       <c r="Y17" t="n">
-        <v>149.0051026146133</v>
+        <v>169.9202605689771</v>
       </c>
     </row>
     <row r="18">
@@ -23811,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9.692024803665078</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>17.70097512703859</v>
       </c>
       <c r="T18" t="n">
-        <v>15.40745441905869</v>
+        <v>35.95608243720207</v>
       </c>
       <c r="U18" t="n">
-        <v>31.98801042919138</v>
+        <v>52.89718584923159</v>
       </c>
       <c r="V18" t="n">
-        <v>29.09248123179387</v>
+        <v>50.00763918615763</v>
       </c>
       <c r="W18" t="n">
-        <v>68.33138477202391</v>
+        <v>89.24654272638767</v>
       </c>
       <c r="X18" t="n">
-        <v>12.55236641657365</v>
+        <v>33.46752437093741</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.9667960833782</v>
+        <v>50.88195403774196</v>
       </c>
     </row>
     <row r="19">
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.9107809503233</v>
+        <v>35.39807096480433</v>
       </c>
       <c r="S19" t="n">
-        <v>27.50220780043372</v>
+        <v>47.08877237817899</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>9.91902554526655</v>
       </c>
       <c r="U19" t="n">
-        <v>66.94596851270302</v>
+        <v>87.85696811534027</v>
       </c>
       <c r="V19" t="n">
-        <v>6.16544108416511</v>
+        <v>27.08059903852887</v>
       </c>
       <c r="W19" t="n">
-        <v>71.27902590409406</v>
+        <v>92.19418385845782</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>9.852691099713837</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>9.394789752738035</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.165124803735</v>
+        <v>153.0802827580987</v>
       </c>
       <c r="C20" t="n">
-        <v>96.46328541074627</v>
+        <v>117.3784433651099</v>
       </c>
       <c r="D20" t="n">
-        <v>80.63625461091323</v>
+        <v>101.5514125652769</v>
       </c>
       <c r="E20" t="n">
-        <v>126.2342193347365</v>
+        <v>147.1493772891001</v>
       </c>
       <c r="F20" t="n">
-        <v>170.4260936090943</v>
+        <v>191.3412515634579</v>
       </c>
       <c r="G20" t="n">
-        <v>198.9637926933232</v>
+        <v>219.7089945637225</v>
       </c>
       <c r="H20" t="n">
-        <v>131.0353576990256</v>
+        <v>150.209952908489</v>
       </c>
       <c r="I20" t="n">
-        <v>56.63145288361795</v>
+        <v>70.99437891094479</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.9782614372786</v>
+        <v>38.21741553231467</v>
       </c>
       <c r="S20" t="n">
-        <v>26.94343133907429</v>
+        <v>43.98571503009961</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>13.81688307089934</v>
       </c>
       <c r="U20" t="n">
-        <v>21.9156784128518</v>
+        <v>42.81723988049831</v>
       </c>
       <c r="V20" t="n">
-        <v>82.22367349864021</v>
+        <v>103.1388314530039</v>
       </c>
       <c r="W20" t="n">
-        <v>91.00775297698874</v>
+        <v>111.9229109313524</v>
       </c>
       <c r="X20" t="n">
-        <v>115.4641306990765</v>
+        <v>136.3792886534402</v>
       </c>
       <c r="Y20" t="n">
-        <v>149.0051026146134</v>
+        <v>169.9202605689771</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9.692024803665021</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>17.70097512703853</v>
       </c>
       <c r="T21" t="n">
-        <v>15.40745441905875</v>
+        <v>35.95608243720201</v>
       </c>
       <c r="U21" t="n">
-        <v>31.98801042919143</v>
+        <v>52.89718584923153</v>
       </c>
       <c r="V21" t="n">
-        <v>29.09248123179393</v>
+        <v>50.00763918615758</v>
       </c>
       <c r="W21" t="n">
-        <v>68.33138477202397</v>
+        <v>89.24654272638762</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5523664165737</v>
+        <v>33.46752437093735</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.96679608337826</v>
+        <v>50.88195403774191</v>
       </c>
     </row>
     <row r="22">
@@ -24157,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.771116669464391e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.91078095032336</v>
+        <v>35.39807096480428</v>
       </c>
       <c r="S22" t="n">
-        <v>27.50220780043378</v>
+        <v>47.08877237817893</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>9.919025545266493</v>
       </c>
       <c r="U22" t="n">
-        <v>66.94596851270308</v>
+        <v>87.85696811534021</v>
       </c>
       <c r="V22" t="n">
-        <v>6.165441084165167</v>
+        <v>27.08059903852882</v>
       </c>
       <c r="W22" t="n">
-        <v>71.27902590409411</v>
+        <v>92.19418385845776</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.85269109971378</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>9.394789752737978</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.165124803735</v>
+        <v>153.0802827580987</v>
       </c>
       <c r="C23" t="n">
-        <v>96.46328541074627</v>
+        <v>117.3784433651099</v>
       </c>
       <c r="D23" t="n">
-        <v>80.63625461091323</v>
+        <v>101.5514125652769</v>
       </c>
       <c r="E23" t="n">
-        <v>126.2342193347365</v>
+        <v>147.1493772891001</v>
       </c>
       <c r="F23" t="n">
-        <v>170.4260936090943</v>
+        <v>191.3412515634579</v>
       </c>
       <c r="G23" t="n">
-        <v>198.9637926933232</v>
+        <v>219.7089945637225</v>
       </c>
       <c r="H23" t="n">
-        <v>131.0353576990256</v>
+        <v>150.209952908489</v>
       </c>
       <c r="I23" t="n">
-        <v>56.63145288361795</v>
+        <v>70.99437891094479</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>27.9782614372786</v>
+        <v>38.21741553231467</v>
       </c>
       <c r="S23" t="n">
-        <v>26.94343133907429</v>
+        <v>43.98571503009961</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>13.81688307089934</v>
       </c>
       <c r="U23" t="n">
-        <v>21.9156784128518</v>
+        <v>42.81723988049831</v>
       </c>
       <c r="V23" t="n">
-        <v>82.22367349864021</v>
+        <v>103.1388314530039</v>
       </c>
       <c r="W23" t="n">
-        <v>91.00775297698874</v>
+        <v>111.9229109313524</v>
       </c>
       <c r="X23" t="n">
-        <v>115.4641306990765</v>
+        <v>136.3792886534402</v>
       </c>
       <c r="Y23" t="n">
-        <v>149.0051026146134</v>
+        <v>169.9202605689771</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9.692024803665021</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>17.70097512703853</v>
       </c>
       <c r="T24" t="n">
-        <v>15.40745441905875</v>
+        <v>35.95608243720201</v>
       </c>
       <c r="U24" t="n">
-        <v>31.98801042919143</v>
+        <v>52.89718584923153</v>
       </c>
       <c r="V24" t="n">
-        <v>29.09248123179393</v>
+        <v>50.00763918615758</v>
       </c>
       <c r="W24" t="n">
-        <v>68.33138477202397</v>
+        <v>89.24654272638762</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5523664165737</v>
+        <v>33.46752437093735</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.96679608337826</v>
+        <v>50.88195403774191</v>
       </c>
     </row>
     <row r="25">
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.91078095032336</v>
+        <v>35.39807096480428</v>
       </c>
       <c r="S25" t="n">
-        <v>27.50220780043378</v>
+        <v>47.08877237817893</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.919025545266493</v>
       </c>
       <c r="U25" t="n">
-        <v>66.94596851270308</v>
+        <v>87.85696811534021</v>
       </c>
       <c r="V25" t="n">
-        <v>6.165441084165167</v>
+        <v>27.08059903852882</v>
       </c>
       <c r="W25" t="n">
-        <v>71.27902590409411</v>
+        <v>92.19418385845776</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>9.85269109971378</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>9.394789752737978</v>
       </c>
     </row>
     <row r="26">
@@ -24440,76 +24442,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>345.5404179521778</v>
+        <v>227.8305205132693</v>
       </c>
       <c r="C26" t="n">
-        <v>309.838578559189</v>
+        <v>192.1286811202806</v>
       </c>
       <c r="D26" t="n">
-        <v>294.0115477593561</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E26" t="n">
-        <v>339.6095124831793</v>
+        <v>221.8996150442707</v>
       </c>
       <c r="F26" t="n">
-        <v>383.8013867575371</v>
+        <v>266.0914893186285</v>
       </c>
       <c r="G26" t="n">
-        <v>412.3390858417661</v>
+        <v>294.4592323188931</v>
       </c>
       <c r="H26" t="n">
-        <v>344.4106508474683</v>
+        <v>224.9601906636597</v>
       </c>
       <c r="I26" t="n">
-        <v>270.0067460320607</v>
+        <v>145.7446166661155</v>
       </c>
       <c r="J26" t="n">
-        <v>151.3962037687307</v>
+        <v>19.26149614845033</v>
       </c>
       <c r="K26" t="n">
-        <v>149.9194474235954</v>
+        <v>10.59049876910277</v>
       </c>
       <c r="L26" t="n">
-        <v>128.4557006392291</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>103.0975890653153</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>86.49813896774546</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P26" t="n">
-        <v>142.5708254791464</v>
+        <v>0.4210307210549615</v>
       </c>
       <c r="Q26" t="n">
-        <v>182.9909793022275</v>
+        <v>46.92773680111046</v>
       </c>
       <c r="R26" t="n">
-        <v>241.3535545857214</v>
+        <v>112.9676532874853</v>
       </c>
       <c r="S26" t="n">
-        <v>240.3187244875171</v>
+        <v>118.7359527852703</v>
       </c>
       <c r="T26" t="n">
-        <v>207.0210010225326</v>
+        <v>88.56712082606998</v>
       </c>
       <c r="U26" t="n">
-        <v>235.2909715612946</v>
+        <v>117.567477635669</v>
       </c>
       <c r="V26" t="n">
-        <v>295.598966647083</v>
+        <v>177.8890692081745</v>
       </c>
       <c r="W26" t="n">
-        <v>304.3830461254315</v>
+        <v>186.673148686523</v>
       </c>
       <c r="X26" t="n">
-        <v>328.8394238475194</v>
+        <v>211.1295264086108</v>
       </c>
       <c r="Y26" t="n">
-        <v>362.3803957630562</v>
+        <v>244.6704983241477</v>
       </c>
     </row>
     <row r="27">
@@ -24519,76 +24521,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.559634637931</v>
+        <v>65.2205216855811</v>
       </c>
       <c r="C27" t="n">
-        <v>202.1521599977442</v>
+        <v>84.44226255883567</v>
       </c>
       <c r="D27" t="n">
-        <v>168.1318998010264</v>
+        <v>50.42200236211789</v>
       </c>
       <c r="E27" t="n">
-        <v>185.3070336476378</v>
+        <v>67.59713620872927</v>
       </c>
       <c r="F27" t="n">
-        <v>171.5145046258074</v>
+        <v>53.80460718689889</v>
       </c>
       <c r="G27" t="n">
-        <v>156.9013529235463</v>
+        <v>39.10052096292038</v>
       </c>
       <c r="H27" t="n">
-        <v>136.0039591158795</v>
+        <v>17.41582563827964</v>
       </c>
       <c r="I27" t="n">
-        <v>120.8407570682123</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>115.95108063058</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>78.85055604170626</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>34.34215252914254</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>10.41151834450483</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>23.84267054501845</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>48.37625679535944</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.0894020637892</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>173.1493877956292</v>
+        <v>49.7935732978132</v>
       </c>
       <c r="S27" t="n">
-        <v>211.8501791784554</v>
+        <v>92.45121288220918</v>
       </c>
       <c r="T27" t="n">
-        <v>228.7827475675016</v>
+        <v>110.7063201923727</v>
       </c>
       <c r="U27" t="n">
-        <v>245.3633035776342</v>
+        <v>127.6474236044022</v>
       </c>
       <c r="V27" t="n">
-        <v>242.4677743802367</v>
+        <v>124.7578769413282</v>
       </c>
       <c r="W27" t="n">
-        <v>281.7066779204667</v>
+        <v>163.9967804815583</v>
       </c>
       <c r="X27" t="n">
-        <v>238.5568750784579</v>
+        <v>108.217762126108</v>
       </c>
       <c r="Y27" t="n">
-        <v>255.9713047452624</v>
+        <v>125.6321917929126</v>
       </c>
     </row>
     <row r="28">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.5391974632748</v>
+        <v>43.20008451092491</v>
       </c>
       <c r="C28" t="n">
-        <v>152.3743097708243</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
         <v>138.8631356105373</v>
@@ -24610,64 +24612,64 @@
         <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>90.68254337723634</v>
       </c>
       <c r="G28" t="n">
-        <v>169.8377575784555</v>
+        <v>39.42240817778636</v>
       </c>
       <c r="H28" t="n">
-        <v>170.9378952067096</v>
+        <v>39.9209709229393</v>
       </c>
       <c r="I28" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J28" t="n">
-        <v>145.0979823694786</v>
+        <v>21.99816803439785</v>
       </c>
       <c r="K28" t="n">
-        <v>117.0862725910297</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M28" t="n">
-        <v>117.9100166068977</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>102.2089258152801</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>127.7486773896165</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>127.9704362427208</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q28" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R28" t="n">
-        <v>231.2860740987662</v>
+        <v>110.1483087199749</v>
       </c>
       <c r="S28" t="n">
-        <v>253.506716462318</v>
+        <v>121.8390101333496</v>
       </c>
       <c r="T28" t="n">
-        <v>215.3341138046966</v>
+        <v>84.66926330043714</v>
       </c>
       <c r="U28" t="n">
-        <v>280.3212616611459</v>
+        <v>162.6072058705109</v>
       </c>
       <c r="V28" t="n">
-        <v>219.540734232608</v>
+        <v>101.8308367936995</v>
       </c>
       <c r="W28" t="n">
         <v>297.2835345659783</v>
       </c>
       <c r="X28" t="n">
-        <v>214.9420418072343</v>
+        <v>84.60292885488442</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.8549249468171</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="29">
@@ -24677,34 +24679,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>132.165124803735</v>
+        <v>227.8305205132693</v>
       </c>
       <c r="C29" t="n">
-        <v>96.46328541074621</v>
+        <v>192.1286811202806</v>
       </c>
       <c r="D29" t="n">
-        <v>80.63625461091317</v>
+        <v>176.3016503204475</v>
       </c>
       <c r="E29" t="n">
-        <v>126.2342193347364</v>
+        <v>221.8996150442707</v>
       </c>
       <c r="F29" t="n">
-        <v>170.4260936090942</v>
+        <v>266.0914893186285</v>
       </c>
       <c r="G29" t="n">
-        <v>198.9637926933232</v>
+        <v>294.4592323188931</v>
       </c>
       <c r="H29" t="n">
-        <v>131.0353576990255</v>
+        <v>224.9601906636596</v>
       </c>
       <c r="I29" t="n">
-        <v>56.6314528836179</v>
+        <v>145.7446166661154</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>19.26149614845033</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>10.59049876910277</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24716,37 +24718,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.4210307210549615</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>46.92773680111046</v>
       </c>
       <c r="R29" t="n">
-        <v>27.97826143727855</v>
+        <v>112.9676532874853</v>
       </c>
       <c r="S29" t="n">
-        <v>26.94343133907424</v>
+        <v>118.7359527852703</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>88.56712082606998</v>
       </c>
       <c r="U29" t="n">
-        <v>21.91567841285175</v>
+        <v>117.567477635669</v>
       </c>
       <c r="V29" t="n">
-        <v>82.22367349864015</v>
+        <v>177.8890692081745</v>
       </c>
       <c r="W29" t="n">
-        <v>91.00775297698868</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>115.4641306990765</v>
+        <v>211.1295264086108</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.0051026146133</v>
+        <v>244.6704983241477</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>65.2205216855811</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>84.44226255883567</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>50.42200236211789</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>67.59713620872927</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.80460718689889</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>39.10052096292037</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>17.41582563827964</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24795,7 +24797,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>49.7935732978132</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>92.45121288220918</v>
       </c>
       <c r="T30" t="n">
-        <v>15.40745441905869</v>
+        <v>110.7063201923727</v>
       </c>
       <c r="U30" t="n">
-        <v>31.98801042919138</v>
+        <v>127.6474236044022</v>
       </c>
       <c r="V30" t="n">
-        <v>29.09248123179387</v>
+        <v>124.7578769413282</v>
       </c>
       <c r="W30" t="n">
-        <v>68.33138477202391</v>
+        <v>163.9967804815583</v>
       </c>
       <c r="X30" t="n">
-        <v>12.55236641657365</v>
+        <v>108.217762126108</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.9667960833782</v>
+        <v>125.6321917929126</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.20008451092491</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>34.66441233191577</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>39.42240817778637</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>39.92097092293929</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>44.42741754951075</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24877,34 +24879,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.040086908907227</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>51.86359988152668</v>
       </c>
       <c r="R31" t="n">
-        <v>17.9107809503233</v>
+        <v>110.1483087199749</v>
       </c>
       <c r="S31" t="n">
-        <v>27.50220780043372</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>84.66926330043714</v>
       </c>
       <c r="U31" t="n">
-        <v>66.94596851270302</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V31" t="n">
-        <v>6.16544108416511</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W31" t="n">
-        <v>71.27902590409406</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>127.2142343787162</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>132.165124803735</v>
+        <v>157.0721591034851</v>
       </c>
       <c r="C32" t="n">
-        <v>96.46328541074621</v>
+        <v>121.3703197104963</v>
       </c>
       <c r="D32" t="n">
-        <v>80.63625461091317</v>
+        <v>105.5432889106633</v>
       </c>
       <c r="E32" t="n">
-        <v>126.2342193347364</v>
+        <v>151.1412536344865</v>
       </c>
       <c r="F32" t="n">
-        <v>170.4260936090942</v>
+        <v>195.3331279088443</v>
       </c>
       <c r="G32" t="n">
-        <v>198.9637926933232</v>
+        <v>223.7008709091089</v>
       </c>
       <c r="H32" t="n">
-        <v>131.0353576990255</v>
+        <v>154.2018292538754</v>
       </c>
       <c r="I32" t="n">
-        <v>56.6314528836179</v>
+        <v>74.98625525633119</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>27.97826143727855</v>
+        <v>42.20929187770108</v>
       </c>
       <c r="S32" t="n">
-        <v>26.94343133907424</v>
+        <v>47.97759137548601</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>17.80875941628574</v>
       </c>
       <c r="U32" t="n">
-        <v>21.91567841285175</v>
+        <v>46.80911622588471</v>
       </c>
       <c r="V32" t="n">
-        <v>82.22367349864015</v>
+        <v>107.1307077983903</v>
       </c>
       <c r="W32" t="n">
-        <v>91.00775297698868</v>
+        <v>115.9147872767388</v>
       </c>
       <c r="X32" t="n">
-        <v>115.4641306990765</v>
+        <v>140.3711649988266</v>
       </c>
       <c r="Y32" t="n">
-        <v>149.0051026146133</v>
+        <v>173.9121369143635</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>13.68390114905142</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>21.69285147242493</v>
       </c>
       <c r="T33" t="n">
-        <v>15.40745441905869</v>
+        <v>39.94795878258842</v>
       </c>
       <c r="U33" t="n">
-        <v>31.98801042919138</v>
+        <v>56.88906219461794</v>
       </c>
       <c r="V33" t="n">
-        <v>29.09248123179387</v>
+        <v>53.99951553154398</v>
       </c>
       <c r="W33" t="n">
-        <v>68.33138477202391</v>
+        <v>93.23841907177402</v>
       </c>
       <c r="X33" t="n">
-        <v>12.55236641657365</v>
+        <v>37.45940071632376</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.9667960833782</v>
+        <v>54.87383038312831</v>
       </c>
     </row>
     <row r="34">
@@ -25090,13 +25092,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>13.72477498132614</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.9107809503233</v>
+        <v>39.38994731019068</v>
       </c>
       <c r="S34" t="n">
-        <v>27.50220780043372</v>
+        <v>51.08064872356533</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>13.91090189065289</v>
       </c>
       <c r="U34" t="n">
-        <v>66.94596851270302</v>
+        <v>91.84884446072661</v>
       </c>
       <c r="V34" t="n">
-        <v>6.16544108416511</v>
+        <v>31.07247538391522</v>
       </c>
       <c r="W34" t="n">
-        <v>71.27902590409406</v>
+        <v>96.18606020384416</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>13.84456744510018</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>13.38666609812438</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.1651248037349</v>
+        <v>157.0721591034851</v>
       </c>
       <c r="C35" t="n">
-        <v>96.46328541074615</v>
+        <v>121.3703197104964</v>
       </c>
       <c r="D35" t="n">
-        <v>80.63625461091311</v>
+        <v>105.5432889106633</v>
       </c>
       <c r="E35" t="n">
-        <v>126.2342193347363</v>
+        <v>151.1412536344866</v>
       </c>
       <c r="F35" t="n">
-        <v>170.4260936090942</v>
+        <v>195.3331279088444</v>
       </c>
       <c r="G35" t="n">
-        <v>198.9637926933231</v>
+        <v>223.7008709091089</v>
       </c>
       <c r="H35" t="n">
-        <v>131.0353576990254</v>
+        <v>154.2018292538754</v>
       </c>
       <c r="I35" t="n">
-        <v>56.63145288361784</v>
+        <v>74.98625525633125</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.97826143727849</v>
+        <v>42.20929187770113</v>
       </c>
       <c r="S35" t="n">
-        <v>26.94343133907418</v>
+        <v>47.97759137548607</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>17.8087594162858</v>
       </c>
       <c r="U35" t="n">
-        <v>21.91567841285169</v>
+        <v>46.80911622588476</v>
       </c>
       <c r="V35" t="n">
-        <v>82.2236734986401</v>
+        <v>107.1307077983903</v>
       </c>
       <c r="W35" t="n">
-        <v>91.00775297698863</v>
+        <v>115.9147872767388</v>
       </c>
       <c r="X35" t="n">
-        <v>115.4641306990764</v>
+        <v>140.3711649988266</v>
       </c>
       <c r="Y35" t="n">
-        <v>149.0051026146133</v>
+        <v>173.9121369143635</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>13.68390114905148</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>21.69285147242499</v>
       </c>
       <c r="T36" t="n">
-        <v>15.40745441905864</v>
+        <v>39.94795878258847</v>
       </c>
       <c r="U36" t="n">
-        <v>31.98801042919132</v>
+        <v>56.88906219461799</v>
       </c>
       <c r="V36" t="n">
-        <v>29.09248123179381</v>
+        <v>53.99951553154403</v>
       </c>
       <c r="W36" t="n">
-        <v>68.33138477202385</v>
+        <v>93.23841907177408</v>
       </c>
       <c r="X36" t="n">
-        <v>12.55236641657359</v>
+        <v>37.45940071632381</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.96679608337814</v>
+        <v>54.87383038312836</v>
       </c>
     </row>
     <row r="37">
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.91078095032324</v>
+        <v>205.4520032782702</v>
       </c>
       <c r="S37" t="n">
-        <v>27.50220780043367</v>
+        <v>51.08064872356539</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>13.91090189065295</v>
       </c>
       <c r="U37" t="n">
-        <v>66.94596851270296</v>
+        <v>91.84884446072667</v>
       </c>
       <c r="V37" t="n">
-        <v>6.165441084165053</v>
+        <v>31.07247538391528</v>
       </c>
       <c r="W37" t="n">
-        <v>71.279025904094</v>
+        <v>96.18606020384422</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>13.84456744510024</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>13.38666609812444</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>132.1651248037349</v>
+        <v>157.0721591034851</v>
       </c>
       <c r="C38" t="n">
-        <v>96.46328541074615</v>
+        <v>121.3703197104964</v>
       </c>
       <c r="D38" t="n">
-        <v>80.63625461091311</v>
+        <v>105.5432889106633</v>
       </c>
       <c r="E38" t="n">
-        <v>126.2342193347363</v>
+        <v>151.1412536344866</v>
       </c>
       <c r="F38" t="n">
-        <v>170.4260936090942</v>
+        <v>195.3331279088444</v>
       </c>
       <c r="G38" t="n">
-        <v>198.9637926933231</v>
+        <v>223.7008709091089</v>
       </c>
       <c r="H38" t="n">
-        <v>131.0353576990254</v>
+        <v>154.2018292538754</v>
       </c>
       <c r="I38" t="n">
-        <v>56.63145288361784</v>
+        <v>74.98625525633125</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.97826143727849</v>
+        <v>42.20929187770113</v>
       </c>
       <c r="S38" t="n">
-        <v>26.94343133907418</v>
+        <v>47.97759137548607</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>17.8087594162858</v>
       </c>
       <c r="U38" t="n">
-        <v>21.91567841285169</v>
+        <v>46.80911622588476</v>
       </c>
       <c r="V38" t="n">
-        <v>82.2236734986401</v>
+        <v>107.1307077983903</v>
       </c>
       <c r="W38" t="n">
-        <v>91.00775297698863</v>
+        <v>115.9147872767388</v>
       </c>
       <c r="X38" t="n">
-        <v>115.4641306990764</v>
+        <v>140.3711649988266</v>
       </c>
       <c r="Y38" t="n">
-        <v>149.0051026146133</v>
+        <v>173.9121369143635</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>13.68390114905148</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>21.69285147242499</v>
       </c>
       <c r="T39" t="n">
-        <v>15.40745441905864</v>
+        <v>39.94795878258847</v>
       </c>
       <c r="U39" t="n">
-        <v>31.98801042919132</v>
+        <v>56.88906219461799</v>
       </c>
       <c r="V39" t="n">
-        <v>29.09248123179381</v>
+        <v>53.99951553154403</v>
       </c>
       <c r="W39" t="n">
-        <v>68.33138477202385</v>
+        <v>93.23841907177408</v>
       </c>
       <c r="X39" t="n">
-        <v>12.55236641657359</v>
+        <v>37.45940071632381</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.96679608337814</v>
+        <v>54.87383038312836</v>
       </c>
     </row>
     <row r="40">
@@ -25573,13 +25575,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>45.20385704106574</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.91078095032324</v>
+        <v>39.38994731019073</v>
       </c>
       <c r="S40" t="n">
-        <v>27.50220780043367</v>
+        <v>51.08064872356539</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>13.91090189065295</v>
       </c>
       <c r="U40" t="n">
-        <v>66.94596851270296</v>
+        <v>91.84884446072667</v>
       </c>
       <c r="V40" t="n">
-        <v>6.165441084165053</v>
+        <v>31.07247538391528</v>
       </c>
       <c r="W40" t="n">
-        <v>71.279025904094</v>
+        <v>96.18606020384422</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>13.84456744510024</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>13.38666609812444</v>
       </c>
     </row>
     <row r="41">
@@ -25625,76 +25627,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.165124803735</v>
+        <v>287.411272055835</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46328541074621</v>
+        <v>251.7094326628463</v>
       </c>
       <c r="D41" t="n">
-        <v>80.63625461091317</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E41" t="n">
-        <v>126.2342193347364</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4260936090942</v>
+        <v>325.6722408611943</v>
       </c>
       <c r="G41" t="n">
-        <v>198.9637926933232</v>
+        <v>354.0399838614588</v>
       </c>
       <c r="H41" t="n">
-        <v>131.0353576990255</v>
+        <v>284.5409422062253</v>
       </c>
       <c r="I41" t="n">
-        <v>56.6314528836179</v>
+        <v>205.3253682086811</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>78.84224769101604</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>118.1328884717574</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>43.50621002267724</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.400328263317931</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>16.09778675492851</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>60.00178226362067</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>106.5084883436762</v>
       </c>
       <c r="R41" t="n">
-        <v>27.97826143727855</v>
+        <v>172.548404830051</v>
       </c>
       <c r="S41" t="n">
-        <v>26.94343133907424</v>
+        <v>178.316704327836</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>148.1478723686357</v>
       </c>
       <c r="U41" t="n">
-        <v>21.91567841285175</v>
+        <v>177.1482291782347</v>
       </c>
       <c r="V41" t="n">
-        <v>82.22367349864015</v>
+        <v>237.4698207507402</v>
       </c>
       <c r="W41" t="n">
-        <v>91.00775297698868</v>
+        <v>246.2539002290887</v>
       </c>
       <c r="X41" t="n">
-        <v>115.4641306990765</v>
+        <v>270.7102779511765</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.0051026146133</v>
+        <v>304.2512498667134</v>
       </c>
     </row>
     <row r="42">
@@ -25704,34 +25706,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>124.8012732281468</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>144.0230141014014</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>110.0027539046836</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>127.177887751295</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>113.3853587294646</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>98.68127250548608</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.99657718084535</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>59.58075154256571</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>49.2306166100548</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.037479066118067</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>109.3743248403789</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T42" t="n">
-        <v>15.40745441905869</v>
+        <v>170.2870717349384</v>
       </c>
       <c r="U42" t="n">
-        <v>31.98801042919138</v>
+        <v>187.2281751469679</v>
       </c>
       <c r="V42" t="n">
-        <v>29.09248123179387</v>
+        <v>184.3386284838939</v>
       </c>
       <c r="W42" t="n">
-        <v>68.33138477202391</v>
+        <v>223.577532024124</v>
       </c>
       <c r="X42" t="n">
-        <v>12.55236641657365</v>
+        <v>167.7985136686737</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.9667960833782</v>
+        <v>185.2129433354783</v>
       </c>
     </row>
     <row r="43">
@@ -25783,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>94.24516387448148</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>68.10477420075307</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>62.15906307103441</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.21335194131578</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.501722465505</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.0081690920765</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>81.57891957696356</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>35.20124539375763</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>60.62083845147293</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R43" t="n">
-        <v>17.9107809503233</v>
+        <v>169.7290602625406</v>
       </c>
       <c r="S43" t="n">
-        <v>27.50220780043372</v>
+        <v>181.4197616759153</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U43" t="n">
-        <v>66.94596851270302</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V43" t="n">
-        <v>6.16544108416511</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W43" t="n">
-        <v>71.27902590409406</v>
+        <v>226.5251731561941</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>144.1836803974501</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>143.7257790504743</v>
       </c>
     </row>
     <row r="44">
@@ -25862,76 +25864,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.1696334656192</v>
+        <v>287.411272055835</v>
       </c>
       <c r="C44" t="n">
-        <v>322.4677940726305</v>
+        <v>251.7094326628463</v>
       </c>
       <c r="D44" t="n">
         <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>352.2387279966206</v>
+        <v>281.4803665868365</v>
       </c>
       <c r="F44" t="n">
-        <v>396.4306022709785</v>
+        <v>325.6722408611943</v>
       </c>
       <c r="G44" t="n">
-        <v>424.9683013552074</v>
+        <v>354.0399838614588</v>
       </c>
       <c r="H44" t="n">
-        <v>357.0398663609097</v>
+        <v>284.5409422062253</v>
       </c>
       <c r="I44" t="n">
-        <v>282.6359615455021</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J44" t="n">
-        <v>164.0254192821721</v>
+        <v>78.84224769101604</v>
       </c>
       <c r="K44" t="n">
-        <v>162.5486629370368</v>
+        <v>70.17125031166847</v>
       </c>
       <c r="L44" t="n">
-        <v>141.0849161526705</v>
+        <v>43.50621002267724</v>
       </c>
       <c r="M44" t="n">
-        <v>105.0014909015128</v>
+        <v>4.400328263317931</v>
       </c>
       <c r="N44" t="n">
-        <v>99.12735448118684</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>115.4918363067663</v>
+        <v>16.09778675492851</v>
       </c>
       <c r="P44" t="n">
-        <v>155.2000409925878</v>
+        <v>60.00178226362067</v>
       </c>
       <c r="Q44" t="n">
-        <v>195.6201948156689</v>
+        <v>106.5084883436762</v>
       </c>
       <c r="R44" t="n">
-        <v>253.9827700991628</v>
+        <v>172.548404830051</v>
       </c>
       <c r="S44" t="n">
-        <v>252.9479400009585</v>
+        <v>178.316704327836</v>
       </c>
       <c r="T44" t="n">
-        <v>219.650216535974</v>
+        <v>148.1478723686357</v>
       </c>
       <c r="U44" t="n">
-        <v>247.920187074736</v>
+        <v>177.1482291782347</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0122616388729</v>
+        <v>246.2539002290887</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>270.7102779511765</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.0096112764976</v>
+        <v>304.2512498667134</v>
       </c>
     </row>
     <row r="45">
@@ -25941,76 +25943,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>195.559634637931</v>
+        <v>152.7620126880315</v>
       </c>
       <c r="C45" t="n">
-        <v>214.7813755111856</v>
+        <v>144.0230141014014</v>
       </c>
       <c r="D45" t="n">
-        <v>180.7611153144678</v>
+        <v>110.0027539046836</v>
       </c>
       <c r="E45" t="n">
-        <v>197.9362491610792</v>
+        <v>127.177887751295</v>
       </c>
       <c r="F45" t="n">
-        <v>184.1437201392488</v>
+        <v>113.3853587294646</v>
       </c>
       <c r="G45" t="n">
-        <v>169.5305684369876</v>
+        <v>98.68127250548608</v>
       </c>
       <c r="H45" t="n">
-        <v>148.6331746293208</v>
+        <v>76.99657718084535</v>
       </c>
       <c r="I45" t="n">
-        <v>133.4699725816536</v>
+        <v>59.58075154256571</v>
       </c>
       <c r="J45" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K45" t="n">
-        <v>91.47977155514764</v>
+        <v>6.037479066118067</v>
       </c>
       <c r="L45" t="n">
-        <v>46.97136804258392</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>36.47188605845983</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>61.00547230880082</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>122.7186175772305</v>
+        <v>40.35254423735</v>
       </c>
       <c r="R45" t="n">
-        <v>185.7786033090706</v>
+        <v>109.3743248403789</v>
       </c>
       <c r="S45" t="n">
-        <v>224.4793946918968</v>
+        <v>152.0319644247749</v>
       </c>
       <c r="T45" t="n">
-        <v>241.4119630809429</v>
+        <v>170.2870717349384</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9925190910756</v>
+        <v>187.2281751469679</v>
       </c>
       <c r="V45" t="n">
-        <v>255.0969898936781</v>
+        <v>184.3386284838939</v>
       </c>
       <c r="W45" t="n">
-        <v>294.3358934339082</v>
+        <v>223.577532024124</v>
       </c>
       <c r="X45" t="n">
-        <v>238.5568750784579</v>
+        <v>167.7985136686737</v>
       </c>
       <c r="Y45" t="n">
-        <v>255.9713047452624</v>
+        <v>185.2129433354783</v>
       </c>
     </row>
     <row r="46">
@@ -26023,61 +26025,61 @@
         <v>173.5391974632748</v>
       </c>
       <c r="C46" t="n">
-        <v>165.0035252842657</v>
+        <v>94.24516387448148</v>
       </c>
       <c r="D46" t="n">
-        <v>138.8631356105373</v>
+        <v>68.10477420075307</v>
       </c>
       <c r="E46" t="n">
-        <v>132.9174244808186</v>
+        <v>62.15906307103441</v>
       </c>
       <c r="F46" t="n">
-        <v>126.9717133511</v>
+        <v>56.21335194131578</v>
       </c>
       <c r="G46" t="n">
-        <v>169.8377575784555</v>
+        <v>99.00315972035207</v>
       </c>
       <c r="H46" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I46" t="n">
-        <v>177.0591684204074</v>
+        <v>104.0081690920765</v>
       </c>
       <c r="J46" t="n">
-        <v>157.72719788292</v>
+        <v>81.57891957696356</v>
       </c>
       <c r="K46" t="n">
-        <v>129.7154881044711</v>
+        <v>50.09983751723004</v>
       </c>
       <c r="L46" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M46" t="n">
-        <v>117.9100166068977</v>
+        <v>35.20124539375763</v>
       </c>
       <c r="N46" t="n">
-        <v>102.2089258152801</v>
+        <v>19.78430863678459</v>
       </c>
       <c r="O46" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P46" t="n">
-        <v>140.5996517561621</v>
+        <v>60.62083845147293</v>
       </c>
       <c r="Q46" t="n">
-        <v>188.5864757926837</v>
+        <v>111.4443514240924</v>
       </c>
       <c r="R46" t="n">
-        <v>243.9152896122075</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S46" t="n">
-        <v>253.506716462318</v>
+        <v>181.4197616759153</v>
       </c>
       <c r="T46" t="n">
-        <v>215.3341138046966</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9504771745873</v>
+        <v>222.1879574130766</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>664988.3986827373</v>
+        <v>666268.7645135127</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693310.1722245599</v>
+        <v>666268.7645135127</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693310.1722245599</v>
+        <v>666268.7645135126</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693310.1722245598</v>
+        <v>666268.7645135127</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693310.1722245599</v>
+        <v>666268.7645135127</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>214803.2748215884</v>
+        <v>498636.8713332775</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693310.1722245599</v>
+        <v>498636.8713332776</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693310.1722245599</v>
+        <v>657316.7422964032</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693310.1722245602</v>
+        <v>657316.7422964029</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693310.1722245602</v>
+        <v>657316.7422964029</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693310.1722245599</v>
+        <v>365023.461153981</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>186481.5012797652</v>
+        <v>365023.4611539812</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>947141.6767557426</v>
       </c>
       <c r="C2" t="n">
-        <v>947141.6767557426</v>
+        <v>947141.6767557425</v>
       </c>
       <c r="D2" t="n">
-        <v>947141.6767557426</v>
+        <v>947141.6767557428</v>
       </c>
       <c r="E2" t="n">
-        <v>789673.7234357498</v>
+        <v>791194.1578597957</v>
       </c>
       <c r="F2" t="n">
-        <v>823305.8295166657</v>
+        <v>791194.1578597957</v>
       </c>
       <c r="G2" t="n">
-        <v>823305.8295166655</v>
+        <v>791194.1578597957</v>
       </c>
       <c r="H2" t="n">
-        <v>823305.8295166657</v>
+        <v>791194.1578597957</v>
       </c>
       <c r="I2" t="n">
-        <v>823305.8295166657</v>
+        <v>791194.1578597957</v>
       </c>
       <c r="J2" t="n">
-        <v>255078.8888506363</v>
+        <v>592131.2847082667</v>
       </c>
       <c r="K2" t="n">
-        <v>823305.8295166655</v>
+        <v>592131.2847082668</v>
       </c>
       <c r="L2" t="n">
-        <v>823305.8295166655</v>
+        <v>780563.6314769797</v>
       </c>
       <c r="M2" t="n">
-        <v>823305.8295166655</v>
+        <v>780563.6314769796</v>
       </c>
       <c r="N2" t="n">
-        <v>823305.8295166658</v>
+        <v>780563.6314769796</v>
       </c>
       <c r="O2" t="n">
-        <v>823305.8295166655</v>
+        <v>433465.3601203532</v>
       </c>
       <c r="P2" t="n">
-        <v>221446.7827697213</v>
+        <v>433465.3601203532</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>477212.5883458788</v>
+        <v>504548.9622897933</v>
       </c>
       <c r="F3" t="n">
-        <v>10103.37241075311</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>104271.2903618799</v>
       </c>
       <c r="K3" t="n">
-        <v>180803.6069295074</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>56606.68912782735</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>341394.9780873731</v>
+        <v>328137.6834104117</v>
       </c>
       <c r="F4" t="n">
-        <v>361601.3979115864</v>
+        <v>328137.6834104117</v>
       </c>
       <c r="G4" t="n">
-        <v>361601.3979115864</v>
+        <v>328137.6834104116</v>
       </c>
       <c r="H4" t="n">
-        <v>361601.3979115863</v>
+        <v>328137.6834104117</v>
       </c>
       <c r="I4" t="n">
-        <v>361601.3979115864</v>
+        <v>328137.6834104117</v>
       </c>
       <c r="J4" t="n">
-        <v>20206.41982421337</v>
+        <v>208539.2266073608</v>
       </c>
       <c r="K4" t="n">
-        <v>361601.3979115864</v>
+        <v>208539.2266073608</v>
       </c>
       <c r="L4" t="n">
-        <v>361601.3979115864</v>
+        <v>321750.7839838103</v>
       </c>
       <c r="M4" t="n">
-        <v>361601.3979115864</v>
+        <v>321750.7839838101</v>
       </c>
       <c r="N4" t="n">
-        <v>361601.3979115866</v>
+        <v>321750.7839838101</v>
       </c>
       <c r="O4" t="n">
-        <v>361601.3979115864</v>
+        <v>113211.5573764496</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>113211.5573764496</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26255.33037030979</v>
+        <v>26480.36882956174</v>
       </c>
       <c r="F5" t="n">
-        <v>27317.05588930929</v>
+        <v>26480.36882956174</v>
       </c>
       <c r="G5" t="n">
-        <v>27317.05588930929</v>
+        <v>26480.36882956173</v>
       </c>
       <c r="H5" t="n">
-        <v>27317.05588930929</v>
+        <v>26480.36882956174</v>
       </c>
       <c r="I5" t="n">
-        <v>27317.05588930929</v>
+        <v>26480.36882956174</v>
       </c>
       <c r="J5" t="n">
-        <v>9378.808369612849</v>
+        <v>20196.1910917223</v>
       </c>
       <c r="K5" t="n">
-        <v>27317.05588930929</v>
+        <v>20196.1910917223</v>
       </c>
       <c r="L5" t="n">
-        <v>27317.05588930929</v>
+        <v>26144.77577708145</v>
       </c>
       <c r="M5" t="n">
-        <v>27317.0558893093</v>
+        <v>26144.77577708144</v>
       </c>
       <c r="N5" t="n">
-        <v>27317.0558893093</v>
+        <v>26144.77577708144</v>
       </c>
       <c r="O5" t="n">
-        <v>27317.05588930929</v>
+        <v>15187.29689029034</v>
       </c>
       <c r="P5" t="n">
-        <v>8317.082850613346</v>
+        <v>15187.29689029034</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344464.3030814065</v>
+        <v>344464.3030814064</v>
       </c>
       <c r="C6" t="n">
-        <v>344464.3030814065</v>
+        <v>344464.3030814063</v>
       </c>
       <c r="D6" t="n">
         <v>344464.3030814065</v>
       </c>
       <c r="E6" t="n">
-        <v>-55189.17336781186</v>
+        <v>-67972.85666997102</v>
       </c>
       <c r="F6" t="n">
-        <v>424284.0033050168</v>
+        <v>436576.1056198223</v>
       </c>
       <c r="G6" t="n">
-        <v>434387.3757157698</v>
+        <v>436576.1056198224</v>
       </c>
       <c r="H6" t="n">
-        <v>434387.3757157701</v>
+        <v>436576.1056198223</v>
       </c>
       <c r="I6" t="n">
-        <v>434387.3757157699</v>
+        <v>436576.1056198223</v>
       </c>
       <c r="J6" t="n">
-        <v>225493.66065681</v>
+        <v>259124.5766473037</v>
       </c>
       <c r="K6" t="n">
-        <v>253583.7687862625</v>
+        <v>363395.8670091837</v>
       </c>
       <c r="L6" t="n">
-        <v>434387.3757157698</v>
+        <v>376061.3825882606</v>
       </c>
       <c r="M6" t="n">
-        <v>434387.3757157698</v>
+        <v>432668.071716088</v>
       </c>
       <c r="N6" t="n">
-        <v>434387.3757157699</v>
+        <v>432668.071716088</v>
       </c>
       <c r="O6" t="n">
-        <v>434387.3757157698</v>
+        <v>305066.5058536133</v>
       </c>
       <c r="P6" t="n">
-        <v>213129.6999191079</v>
+        <v>305066.5058536133</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="F2" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="G2" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="H2" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="I2" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="J2" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="K2" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="L2" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="M2" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="N2" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="O2" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="G3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="H3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="I3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="J3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="K3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="L3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="M3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="N3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="O3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="P3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="F2" t="n">
-        <v>12.62921551344138</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="K2" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="K2" t="n">
-        <v>12.62921551344138</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="P2" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="C11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="E11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="F11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="G11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="H11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="I11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="J11" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K11" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L11" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M11" t="n">
-        <v>105.0014909015127</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N11" t="n">
-        <v>99.1273544811869</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O11" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471342</v>
       </c>
       <c r="P11" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.04464685483254</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y11" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28171,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D12" t="n">
         <v>180.7611153144678</v>
@@ -28181,61 +28183,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H12" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I12" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J12" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K12" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L12" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M12" t="n">
-        <v>23.04073385794618</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P12" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R12" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y12" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="13">
@@ -28260,61 +28262,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H13" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I13" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J13" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K13" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L13" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M13" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N13" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P13" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q13" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.3752931484429</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="C14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="E14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="F14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="G14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="H14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="I14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="J14" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K14" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L14" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M14" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N14" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O14" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P14" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T14" t="n">
-        <v>219.650216535974</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y14" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28408,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C15" t="n">
-        <v>214.7813755111856</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D15" t="n">
         <v>180.7611153144678</v>
@@ -28418,61 +28420,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H15" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I15" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J15" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K15" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L15" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M15" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P15" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R15" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S15" t="n">
-        <v>224.4793946918968</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T15" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U15" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V15" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W15" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X15" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y15" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="16">
@@ -28491,67 +28493,67 @@
         <v>138.8631356105373</v>
       </c>
       <c r="E16" t="n">
-        <v>132.9174244808215</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F16" t="n">
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H16" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I16" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J16" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K16" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L16" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M16" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N16" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P16" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q16" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R16" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S16" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T16" t="n">
-        <v>215.3341138046966</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U16" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V16" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W16" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9420418072343</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.4841404602585</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="C17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="E17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="F17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="G17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="H17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="I17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="J17" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K17" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L17" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M17" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N17" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O17" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P17" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T17" t="n">
-        <v>219.650216535974</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y17" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28645,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C18" t="n">
-        <v>214.7813755111856</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D18" t="n">
         <v>180.7611153144678</v>
@@ -28655,61 +28657,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H18" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I18" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J18" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K18" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L18" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M18" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P18" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R18" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S18" t="n">
-        <v>224.4793946918968</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T18" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U18" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V18" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W18" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X18" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y18" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="19">
@@ -28734,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H19" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I19" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J19" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K19" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L19" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M19" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N19" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O19" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P19" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q19" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R19" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S19" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T19" t="n">
-        <v>215.3341138046966</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U19" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V19" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W19" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X19" t="n">
-        <v>214.9420418072343</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.4841404602585</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="C20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="E20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="F20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="G20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="H20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="I20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="J20" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K20" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L20" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M20" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N20" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O20" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P20" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T20" t="n">
-        <v>219.650216535974</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y20" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28882,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C21" t="n">
-        <v>214.7813755111856</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D21" t="n">
         <v>180.7611153144678</v>
@@ -28892,61 +28894,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H21" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I21" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J21" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K21" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L21" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M21" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P21" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R21" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S21" t="n">
-        <v>224.4793946918968</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T21" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U21" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V21" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W21" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X21" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y21" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="22">
@@ -28971,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H22" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I22" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J22" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K22" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L22" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M22" t="n">
-        <v>117.9100166068949</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N22" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O22" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P22" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q22" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R22" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S22" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T22" t="n">
-        <v>215.3341138046966</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U22" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V22" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W22" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X22" t="n">
-        <v>214.9420418072343</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.4841404602585</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="C23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="E23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="F23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="G23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="H23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="I23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="J23" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K23" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L23" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M23" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N23" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O23" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P23" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T23" t="n">
-        <v>219.650216535974</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y23" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29119,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C24" t="n">
-        <v>214.7813755111856</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="D24" t="n">
         <v>180.7611153144678</v>
@@ -29129,61 +29131,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H24" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I24" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J24" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K24" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L24" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M24" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P24" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R24" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S24" t="n">
-        <v>224.4793946918968</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T24" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U24" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V24" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W24" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X24" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y24" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="25">
@@ -29208,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H25" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I25" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J25" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K25" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L25" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M25" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N25" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O25" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P25" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q25" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R25" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="S25" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="T25" t="n">
-        <v>215.3341138046966</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="U25" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="V25" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="W25" t="n">
-        <v>226.0045086618842</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="X25" t="n">
-        <v>214.9420418072343</v>
+        <v>205.0893507075205</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.4841404602585</v>
+        <v>205.0893507075205</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="C26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="D26" t="n">
-        <v>12.62921551344138</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="F26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="G26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="H26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="I26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="K26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="L26" t="n">
-        <v>12.62921551344138</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M26" t="n">
-        <v>1.903901836197463</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N26" t="n">
-        <v>12.62921551344138</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="R26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="S26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="T26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="U26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="V26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="W26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="X26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="C27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="D27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="E27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="F27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="G27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="H27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="I27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J27" t="n">
-        <v>12.62921551344138</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K27" t="n">
-        <v>12.62921551344138</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L27" t="n">
-        <v>12.62921551344138</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M27" t="n">
-        <v>12.62921551344138</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>12.62921551344138</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P27" t="n">
-        <v>12.62921551344138</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.62921551344138</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="S27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="T27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="U27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="V27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="W27" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29432,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="C28" t="n">
-        <v>12.62921551344138</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29442,64 +29444,64 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>36.28916997386362</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="K28" t="n">
-        <v>12.62921551344138</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P28" t="n">
-        <v>12.62921551344138</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="U28" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="V28" t="n">
-        <v>12.62921551344138</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.62921551344138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="C29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="D29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="E29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="F29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="G29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="H29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="I29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J29" t="n">
-        <v>164.0254192821721</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="K29" t="n">
-        <v>162.5486629370368</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="L29" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M29" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N29" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O29" t="n">
-        <v>115.4918363067663</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>155.2000409925878</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.6201948156689</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="R29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="S29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="T29" t="n">
-        <v>219.650216535974</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="U29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="V29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="W29" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Y29" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>195.559634637931</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="C30" t="n">
-        <v>214.7813755111856</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="D30" t="n">
-        <v>180.7611153144678</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="E30" t="n">
-        <v>197.9362491610792</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="F30" t="n">
-        <v>184.1437201392488</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="G30" t="n">
-        <v>169.5305684369876</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="H30" t="n">
-        <v>148.6331746293208</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="I30" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J30" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K30" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L30" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M30" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>36.47188605845983</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R30" t="n">
-        <v>185.7786033090706</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="S30" t="n">
-        <v>224.4793946918968</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="T30" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="U30" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="V30" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="W30" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="X30" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Y30" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.5391974632748</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0035252842657</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="D31" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>169.8377575784555</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="H31" t="n">
-        <v>170.9378952067096</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="I31" t="n">
-        <v>177.0591684204074</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J31" t="n">
-        <v>157.72719788292</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L31" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M31" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N31" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O31" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P31" t="n">
-        <v>140.5996517561621</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="Q31" t="n">
-        <v>188.5864757926837</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="R31" t="n">
-        <v>226.0045086618842</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="S31" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>215.3341138046966</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="U31" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.4841404602585</v>
+        <v>87.26990608154235</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="C32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="D32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="E32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="F32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="G32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="H32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="I32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="J32" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K32" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214526</v>
       </c>
       <c r="L32" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M32" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N32" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O32" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P32" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="S32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T32" t="n">
-        <v>219.650216535974</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y32" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29830,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C33" t="n">
-        <v>214.7813755111856</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="D33" t="n">
         <v>180.7611153144678</v>
@@ -29840,61 +29842,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H33" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I33" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J33" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K33" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L33" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689194</v>
       </c>
       <c r="M33" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P33" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700126</v>
       </c>
       <c r="Q33" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R33" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S33" t="n">
-        <v>224.4793946918968</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T33" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U33" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V33" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W33" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X33" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y33" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="34">
@@ -29919,61 +29921,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H34" t="n">
-        <v>170.9378952067096</v>
+        <v>156.535308893963</v>
       </c>
       <c r="I34" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J34" t="n">
-        <v>157.72719788292</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L34" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M34" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N34" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O34" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P34" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q34" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R34" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="S34" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T34" t="n">
-        <v>215.3341138046966</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U34" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V34" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W34" t="n">
-        <v>226.0045086618842</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X34" t="n">
-        <v>214.9420418072343</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.4841404602585</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="C35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="D35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="E35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="F35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="G35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="H35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="I35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="J35" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K35" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L35" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M35" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N35" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O35" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P35" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q35" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="S35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T35" t="n">
-        <v>219.6502165359746</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y35" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30067,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C36" t="n">
-        <v>214.7813755111856</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="D36" t="n">
         <v>180.7611153144678</v>
@@ -30077,61 +30079,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H36" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I36" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J36" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K36" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L36" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M36" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P36" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R36" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S36" t="n">
-        <v>224.4793946918968</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T36" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U36" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V36" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W36" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X36" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y36" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="37">
@@ -30156,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H37" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I37" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J37" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K37" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L37" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M37" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N37" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O37" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P37" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q37" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R37" t="n">
-        <v>226.0045086618843</v>
+        <v>35.03541839405462</v>
       </c>
       <c r="S37" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T37" t="n">
-        <v>215.3341138046966</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U37" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V37" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W37" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X37" t="n">
-        <v>214.9420418072343</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.4841404602585</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="C38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="D38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="E38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="F38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="G38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="H38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="I38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="J38" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K38" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L38" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M38" t="n">
-        <v>105.0014909015128</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N38" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O38" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P38" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q38" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="S38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T38" t="n">
-        <v>219.650216535974</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y38" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30304,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C39" t="n">
-        <v>214.7813755111856</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="D39" t="n">
         <v>180.7611153144678</v>
@@ -30314,61 +30316,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H39" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I39" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J39" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K39" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L39" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M39" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P39" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R39" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S39" t="n">
-        <v>224.4793946918968</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T39" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U39" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V39" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W39" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X39" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y39" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="40">
@@ -30393,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H40" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I40" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J40" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K40" t="n">
-        <v>129.7154881044776</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M40" t="n">
-        <v>117.9100166068977</v>
+        <v>60.75574976247608</v>
       </c>
       <c r="N40" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O40" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P40" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q40" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R40" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="S40" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="T40" t="n">
-        <v>215.3341138046966</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="U40" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="V40" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="W40" t="n">
-        <v>226.0045086618843</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="X40" t="n">
-        <v>214.9420418072343</v>
+        <v>201.0974743621341</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4841404602585</v>
+        <v>201.0974743621341</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="C41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="D41" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="G41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="H41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="I41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="J41" t="n">
-        <v>164.0254192821721</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="K41" t="n">
-        <v>162.5486629370368</v>
+        <v>22.79672324969523</v>
       </c>
       <c r="L41" t="n">
-        <v>141.0849161526705</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="M41" t="n">
-        <v>105.0014909015128</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="N41" t="n">
-        <v>99.12735448118684</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O41" t="n">
-        <v>115.4918363067663</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="P41" t="n">
-        <v>155.2000409925878</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Q41" t="n">
-        <v>195.6201948156689</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="R41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="S41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="T41" t="n">
-        <v>219.650216535974</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="U41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="V41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="W41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="X41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Y41" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>195.559634637931</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="C42" t="n">
-        <v>214.7813755111856</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="D42" t="n">
-        <v>180.7611153144678</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="E42" t="n">
-        <v>197.9362491610792</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="F42" t="n">
-        <v>184.1437201392488</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="G42" t="n">
-        <v>169.5305684369876</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="H42" t="n">
-        <v>148.6331746293208</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="I42" t="n">
-        <v>133.4699725816536</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="J42" t="n">
-        <v>128.5802961440214</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="K42" t="n">
-        <v>91.47977155514764</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="L42" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M42" t="n">
-        <v>23.04073385794621</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P42" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q42" t="n">
-        <v>122.7186175772305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>185.7786033090706</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="S42" t="n">
-        <v>224.4793946918968</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="U42" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="V42" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="W42" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="X42" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Y42" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>165.0035252842657</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="D43" t="n">
-        <v>138.8631356105373</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="E43" t="n">
-        <v>132.9174244808186</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="G43" t="n">
-        <v>169.8377575784555</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>170.9378952067096</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="I43" t="n">
-        <v>177.0591684204074</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="J43" t="n">
-        <v>157.72719788292</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="K43" t="n">
-        <v>129.7154881044711</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>116.9033660355724</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>117.9100166068977</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="N43" t="n">
-        <v>102.2089258152801</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>127.7486773896165</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>140.5996517561621</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Q43" t="n">
-        <v>188.5864757926837</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="S43" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="T43" t="n">
-        <v>215.3341138046966</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>226.0045086618842</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>226.0045086618842</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="X43" t="n">
-        <v>214.9420418072343</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.4841404602585</v>
+        <v>70.75836140978419</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30696,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
     </row>
     <row r="45">
@@ -30773,37 +30775,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>42.79762194989953</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -30812,37 +30814,37 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
     </row>
     <row r="46">
@@ -30855,61 +30857,61 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>70.75836140978419</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H11" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I11" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J11" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K11" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L11" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M11" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N11" t="n">
-        <v>273.6688738632733</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O11" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P11" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R11" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S11" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T11" t="n">
-        <v>6.713942220932166</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8206226804309515</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H12" t="n">
-        <v>7.925487466267348</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I12" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K12" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M12" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P12" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R12" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S12" t="n">
-        <v>15.24270636677666</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T12" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H13" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I13" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J13" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K13" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L13" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M13" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N13" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O13" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P13" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R13" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S13" t="n">
-        <v>11.98965846339734</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T13" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H14" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I14" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J14" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K14" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L14" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M14" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N14" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O14" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P14" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R14" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S14" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T14" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H15" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I15" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J15" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K15" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M15" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P15" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R15" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S15" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T15" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H16" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I16" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J16" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K16" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M16" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N16" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O16" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P16" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R16" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S16" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T16" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I17" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J17" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K17" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L17" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M17" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N17" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O17" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P17" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q17" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R17" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S17" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T17" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H18" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I18" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J18" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K18" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M18" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P18" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R18" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S18" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T18" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H19" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I19" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J19" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K19" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L19" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M19" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N19" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O19" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P19" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R19" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S19" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T19" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I20" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J20" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K20" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L20" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M20" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N20" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O20" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P20" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R20" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S20" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T20" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H21" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I21" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J21" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K21" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L21" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M21" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P21" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R21" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S21" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T21" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H22" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I22" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J22" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K22" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L22" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M22" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N22" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O22" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P22" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R22" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S22" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T22" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H23" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I23" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J23" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K23" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L23" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M23" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N23" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O23" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P23" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R23" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S23" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T23" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H24" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I24" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J24" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K24" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M24" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P24" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R24" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S24" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T24" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H25" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I25" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J25" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K25" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L25" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M25" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N25" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O25" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P25" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R25" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S25" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T25" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H26" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I26" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J26" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K26" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L26" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M26" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N26" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O26" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P26" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R26" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S26" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T26" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H27" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I27" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J27" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K27" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M27" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P27" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R27" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S27" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T27" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H28" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I28" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J28" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K28" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M28" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N28" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O28" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P28" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R28" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S28" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T28" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H29" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I29" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J29" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K29" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L29" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M29" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N29" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O29" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P29" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q29" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R29" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S29" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T29" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H30" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I30" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J30" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K30" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L30" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M30" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P30" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R30" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S30" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T30" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H31" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I31" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J31" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K31" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M31" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N31" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O31" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P31" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R31" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S31" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T31" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H32" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I32" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J32" t="n">
-        <v>130.1741755736931</v>
+        <v>144.5989857550651</v>
       </c>
       <c r="K32" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L32" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M32" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N32" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O32" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P32" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R32" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S32" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T32" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486244</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483087</v>
       </c>
       <c r="H33" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I33" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J33" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349439</v>
       </c>
       <c r="K33" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L33" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454036</v>
       </c>
       <c r="M33" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P33" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R33" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S33" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T33" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H34" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219365</v>
       </c>
       <c r="I34" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J34" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K34" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010573</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M34" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O34" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P34" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R34" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S34" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T34" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H35" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I35" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J35" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K35" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L35" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M35" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N35" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O35" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P35" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R35" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S35" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T35" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H36" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I36" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J36" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K36" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M36" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P36" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R36" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S36" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T36" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H37" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I37" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J37" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K37" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L37" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M37" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O37" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P37" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R37" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S37" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T37" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H38" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I38" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J38" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K38" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L38" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M38" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N38" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O38" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P38" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R38" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S38" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T38" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H39" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I39" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J39" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M39" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P39" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R39" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S39" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T39" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H40" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I40" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J40" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K40" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L40" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M40" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O40" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P40" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R40" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S40" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T40" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H41" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I41" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J41" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K41" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L41" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M41" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N41" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O41" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P41" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R41" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S41" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T41" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H42" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I42" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J42" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K42" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L42" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M42" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P42" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R42" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S42" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T42" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H43" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I43" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J43" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K43" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L43" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M43" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O43" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P43" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R43" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S43" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T43" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H44" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I44" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J44" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K44" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L44" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M44" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N44" t="n">
-        <v>273.6688738632734</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O44" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P44" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R44" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S44" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T44" t="n">
-        <v>6.713942220932167</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H45" t="n">
-        <v>7.925487466267349</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I45" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J45" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K45" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M45" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P45" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R45" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S45" t="n">
-        <v>15.24270636677665</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T45" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H46" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I46" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J46" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K46" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L46" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M46" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O46" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P46" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R46" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S46" t="n">
-        <v>11.98965846339733</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T46" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2844270.023804621</v>
+        <v>2814850.365420145</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8018174.768398623</v>
+        <v>7216457.218849282</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7470562.937370634</v>
+        <v>7705345.710101852</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.0802827580987</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C11" t="n">
-        <v>117.3784433651099</v>
+        <v>96.46328541074624</v>
       </c>
       <c r="D11" t="n">
-        <v>101.5514125652769</v>
+        <v>80.6362546109132</v>
       </c>
       <c r="E11" t="n">
-        <v>147.1493772891001</v>
+        <v>126.2342193347364</v>
       </c>
       <c r="F11" t="n">
-        <v>191.3412515634579</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G11" t="n">
-        <v>219.7089945637225</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H11" t="n">
-        <v>150.209952908489</v>
+        <v>131.0353576990256</v>
       </c>
       <c r="I11" t="n">
-        <v>70.99437891094479</v>
+        <v>56.63145288361795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-12</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.21741553231467</v>
+        <v>27.97826143727856</v>
       </c>
       <c r="S11" t="n">
-        <v>43.98571503009961</v>
+        <v>26.94343133907427</v>
       </c>
       <c r="T11" t="n">
-        <v>13.81688307089934</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>42.81723988049831</v>
+        <v>21.91567841285177</v>
       </c>
       <c r="V11" t="n">
-        <v>103.1388314530039</v>
+        <v>82.22367349864018</v>
       </c>
       <c r="W11" t="n">
-        <v>111.9229109313524</v>
+        <v>91.00775297698871</v>
       </c>
       <c r="X11" t="n">
-        <v>136.3792886534402</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.9202605689771</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.692024803665021</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17.70097512703853</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>35.95608243720201</v>
+        <v>15.40745441905873</v>
       </c>
       <c r="U12" t="n">
-        <v>52.89718584923153</v>
+        <v>31.98801042919138</v>
       </c>
       <c r="V12" t="n">
-        <v>50.00763918615758</v>
+        <v>29.0924812317939</v>
       </c>
       <c r="W12" t="n">
-        <v>89.24654272638762</v>
+        <v>68.33138477202394</v>
       </c>
       <c r="X12" t="n">
-        <v>33.46752437093735</v>
+        <v>12.55236641657368</v>
       </c>
       <c r="Y12" t="n">
-        <v>50.88195403774191</v>
+        <v>29.96679608337823</v>
       </c>
     </row>
     <row r="13">
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.39807096480428</v>
+        <v>17.91078095032334</v>
       </c>
       <c r="S13" t="n">
-        <v>47.08877237817893</v>
+        <v>27.50220780043377</v>
       </c>
       <c r="T13" t="n">
-        <v>9.919025545266493</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>87.85696811534021</v>
+        <v>66.94596851270303</v>
       </c>
       <c r="V13" t="n">
-        <v>27.08059903852882</v>
+        <v>6.165441084165138</v>
       </c>
       <c r="W13" t="n">
-        <v>92.19418385845776</v>
+        <v>71.27902590409408</v>
       </c>
       <c r="X13" t="n">
-        <v>9.85269109971378</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.394789752737978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>153.0802827580987</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C14" t="n">
-        <v>117.3784433651099</v>
+        <v>96.46328541074624</v>
       </c>
       <c r="D14" t="n">
-        <v>101.5514125652769</v>
+        <v>80.6362546109132</v>
       </c>
       <c r="E14" t="n">
-        <v>147.1493772891001</v>
+        <v>126.2342193347364</v>
       </c>
       <c r="F14" t="n">
-        <v>191.3412515634579</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G14" t="n">
-        <v>219.7089945637225</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H14" t="n">
-        <v>150.209952908489</v>
+        <v>131.0353576990256</v>
       </c>
       <c r="I14" t="n">
-        <v>70.99437891094479</v>
+        <v>56.63145288361795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>38.21741553231467</v>
+        <v>27.97826143727856</v>
       </c>
       <c r="S14" t="n">
-        <v>43.98571503009961</v>
+        <v>26.94343133907427</v>
       </c>
       <c r="T14" t="n">
-        <v>13.81688307089934</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>42.81723988049831</v>
+        <v>21.91567841285177</v>
       </c>
       <c r="V14" t="n">
-        <v>103.1388314530039</v>
+        <v>82.22367349864018</v>
       </c>
       <c r="W14" t="n">
-        <v>111.9229109313524</v>
+        <v>91.00775297698871</v>
       </c>
       <c r="X14" t="n">
-        <v>136.3792886534402</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.9202605689771</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.692024803665021</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>17.70097512703853</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>35.95608243720201</v>
+        <v>15.40745441905873</v>
       </c>
       <c r="U15" t="n">
-        <v>52.89718584923153</v>
+        <v>31.98801042919138</v>
       </c>
       <c r="V15" t="n">
-        <v>50.00763918615758</v>
+        <v>29.0924812317939</v>
       </c>
       <c r="W15" t="n">
-        <v>89.24654272638762</v>
+        <v>68.33138477202394</v>
       </c>
       <c r="X15" t="n">
-        <v>33.46752437093735</v>
+        <v>12.55236641657368</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.88195403774191</v>
+        <v>29.96679608337823</v>
       </c>
     </row>
     <row r="16">
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.39807096480428</v>
+        <v>17.91078095032334</v>
       </c>
       <c r="S16" t="n">
-        <v>47.08877237817893</v>
+        <v>27.50220780043377</v>
       </c>
       <c r="T16" t="n">
-        <v>9.919025545266493</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>87.85696811534021</v>
+        <v>66.94596851270303</v>
       </c>
       <c r="V16" t="n">
-        <v>27.08059903852882</v>
+        <v>6.165441084165138</v>
       </c>
       <c r="W16" t="n">
-        <v>92.19418385845776</v>
+        <v>71.27902590409408</v>
       </c>
       <c r="X16" t="n">
-        <v>9.85269109971378</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.394789752737978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>153.0802827580987</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C17" t="n">
-        <v>117.37844336511</v>
+        <v>96.46328541074624</v>
       </c>
       <c r="D17" t="n">
-        <v>101.5514125652769</v>
+        <v>80.6362546109132</v>
       </c>
       <c r="E17" t="n">
-        <v>147.1493772891002</v>
+        <v>126.2342193347364</v>
       </c>
       <c r="F17" t="n">
-        <v>191.341251563458</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G17" t="n">
-        <v>219.7089945637225</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H17" t="n">
-        <v>150.209952908489</v>
+        <v>131.0353576990256</v>
       </c>
       <c r="I17" t="n">
-        <v>70.99437891094485</v>
+        <v>56.63145288361795</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.21741553231473</v>
+        <v>27.97826143727856</v>
       </c>
       <c r="S17" t="n">
-        <v>43.98571503009967</v>
+        <v>26.94343133907427</v>
       </c>
       <c r="T17" t="n">
-        <v>13.81688307089939</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>42.81723988049836</v>
+        <v>21.91567841285177</v>
       </c>
       <c r="V17" t="n">
-        <v>103.1388314530039</v>
+        <v>82.22367349864018</v>
       </c>
       <c r="W17" t="n">
-        <v>111.9229109313524</v>
+        <v>91.00775297698871</v>
       </c>
       <c r="X17" t="n">
-        <v>136.3792886534402</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y17" t="n">
-        <v>169.9202605689771</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>9.692024803665078</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>17.70097512703859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>35.95608243720207</v>
+        <v>15.40745441905873</v>
       </c>
       <c r="U18" t="n">
-        <v>52.89718584923159</v>
+        <v>31.98801042919138</v>
       </c>
       <c r="V18" t="n">
-        <v>50.00763918615763</v>
+        <v>29.0924812317939</v>
       </c>
       <c r="W18" t="n">
-        <v>89.24654272638767</v>
+        <v>68.33138477202394</v>
       </c>
       <c r="X18" t="n">
-        <v>33.46752437093741</v>
+        <v>12.55236641657368</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.88195403774196</v>
+        <v>29.96679608337823</v>
       </c>
     </row>
     <row r="19">
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.39807096480433</v>
+        <v>17.91078095032334</v>
       </c>
       <c r="S19" t="n">
-        <v>47.08877237817899</v>
+        <v>27.50220780043377</v>
       </c>
       <c r="T19" t="n">
-        <v>9.91902554526655</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>87.85696811534027</v>
+        <v>66.94596851270303</v>
       </c>
       <c r="V19" t="n">
-        <v>27.08059903852887</v>
+        <v>6.165441084165138</v>
       </c>
       <c r="W19" t="n">
-        <v>92.19418385845782</v>
+        <v>71.27902590409408</v>
       </c>
       <c r="X19" t="n">
-        <v>9.852691099713837</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.394789752738035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153.0802827580987</v>
+        <v>132.1651248037349</v>
       </c>
       <c r="C20" t="n">
-        <v>117.3784433651099</v>
+        <v>96.46328541074615</v>
       </c>
       <c r="D20" t="n">
-        <v>101.5514125652769</v>
+        <v>80.63625461091311</v>
       </c>
       <c r="E20" t="n">
-        <v>147.1493772891001</v>
+        <v>126.2342193347363</v>
       </c>
       <c r="F20" t="n">
-        <v>191.3412515634579</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G20" t="n">
-        <v>219.7089945637225</v>
+        <v>198.9637926933231</v>
       </c>
       <c r="H20" t="n">
-        <v>150.209952908489</v>
+        <v>131.0353576990255</v>
       </c>
       <c r="I20" t="n">
-        <v>70.99437891094479</v>
+        <v>56.63145288361786</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>38.21741553231467</v>
+        <v>27.97826143727848</v>
       </c>
       <c r="S20" t="n">
-        <v>43.98571503009961</v>
+        <v>26.94343133907419</v>
       </c>
       <c r="T20" t="n">
-        <v>13.81688307089934</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.81723988049831</v>
+        <v>21.91567841285169</v>
       </c>
       <c r="V20" t="n">
-        <v>103.1388314530039</v>
+        <v>82.2236734986401</v>
       </c>
       <c r="W20" t="n">
-        <v>111.9229109313524</v>
+        <v>91.00775297698863</v>
       </c>
       <c r="X20" t="n">
-        <v>136.3792886534402</v>
+        <v>115.4641306990764</v>
       </c>
       <c r="Y20" t="n">
-        <v>169.9202605689771</v>
+        <v>149.0051026146133</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>9.692024803665021</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>17.70097512703853</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>35.95608243720201</v>
+        <v>15.40745441905864</v>
       </c>
       <c r="U21" t="n">
-        <v>52.89718584923153</v>
+        <v>31.9880104291913</v>
       </c>
       <c r="V21" t="n">
-        <v>50.00763918615758</v>
+        <v>29.09248123179381</v>
       </c>
       <c r="W21" t="n">
-        <v>89.24654272638762</v>
+        <v>68.33138477202385</v>
       </c>
       <c r="X21" t="n">
-        <v>33.46752437093735</v>
+        <v>12.55236641657359</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.88195403774191</v>
+        <v>29.96679608337814</v>
       </c>
     </row>
     <row r="22">
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.39807096480428</v>
+        <v>17.91078095032325</v>
       </c>
       <c r="S22" t="n">
-        <v>47.08877237817893</v>
+        <v>27.50220780043368</v>
       </c>
       <c r="T22" t="n">
-        <v>9.919025545266493</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>87.85696811534021</v>
+        <v>66.94596851270295</v>
       </c>
       <c r="V22" t="n">
-        <v>27.08059903852882</v>
+        <v>6.165441084165053</v>
       </c>
       <c r="W22" t="n">
-        <v>92.19418385845776</v>
+        <v>71.279025904094</v>
       </c>
       <c r="X22" t="n">
-        <v>9.85269109971378</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.394789752737978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>153.0802827580987</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C23" t="n">
-        <v>117.3784433651099</v>
+        <v>96.46328541074627</v>
       </c>
       <c r="D23" t="n">
-        <v>101.5514125652769</v>
+        <v>80.63625461091323</v>
       </c>
       <c r="E23" t="n">
-        <v>147.1493772891001</v>
+        <v>126.2342193347365</v>
       </c>
       <c r="F23" t="n">
-        <v>191.3412515634579</v>
+        <v>170.4260936090943</v>
       </c>
       <c r="G23" t="n">
-        <v>219.7089945637225</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H23" t="n">
-        <v>150.209952908489</v>
+        <v>131.0353576990256</v>
       </c>
       <c r="I23" t="n">
-        <v>70.99437891094479</v>
+        <v>56.63145288361797</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>38.21741553231467</v>
+        <v>27.97826143727859</v>
       </c>
       <c r="S23" t="n">
-        <v>43.98571503009961</v>
+        <v>26.9434313390743</v>
       </c>
       <c r="T23" t="n">
-        <v>13.81688307089934</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>42.81723988049831</v>
+        <v>21.9156784128518</v>
       </c>
       <c r="V23" t="n">
-        <v>103.1388314530039</v>
+        <v>82.22367349864021</v>
       </c>
       <c r="W23" t="n">
-        <v>111.9229109313524</v>
+        <v>91.00775297698874</v>
       </c>
       <c r="X23" t="n">
-        <v>136.3792886534402</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y23" t="n">
-        <v>169.9202605689771</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>9.692024803665021</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>17.70097512703853</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>35.95608243720201</v>
+        <v>15.40745441905875</v>
       </c>
       <c r="U24" t="n">
-        <v>52.89718584923153</v>
+        <v>31.98801042919141</v>
       </c>
       <c r="V24" t="n">
-        <v>50.00763918615758</v>
+        <v>29.09248123179393</v>
       </c>
       <c r="W24" t="n">
-        <v>89.24654272638762</v>
+        <v>68.33138477202397</v>
       </c>
       <c r="X24" t="n">
-        <v>33.46752437093735</v>
+        <v>12.5523664165737</v>
       </c>
       <c r="Y24" t="n">
-        <v>50.88195403774191</v>
+        <v>29.96679608337826</v>
       </c>
     </row>
     <row r="25">
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.39807096480428</v>
+        <v>17.91078095032337</v>
       </c>
       <c r="S25" t="n">
-        <v>47.08877237817893</v>
+        <v>27.50220780043379</v>
       </c>
       <c r="T25" t="n">
-        <v>9.919025545266493</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>87.85696811534021</v>
+        <v>66.94596851270306</v>
       </c>
       <c r="V25" t="n">
-        <v>27.08059903852882</v>
+        <v>6.165441084165167</v>
       </c>
       <c r="W25" t="n">
-        <v>92.19418385845776</v>
+        <v>71.27902590409411</v>
       </c>
       <c r="X25" t="n">
-        <v>9.85269109971378</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.394789752737978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,34 +24442,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>227.8305205132693</v>
+        <v>142.7541405994395</v>
       </c>
       <c r="C26" t="n">
-        <v>192.1286811202806</v>
+        <v>107.0523012064507</v>
       </c>
       <c r="D26" t="n">
-        <v>306.6407632727974</v>
+        <v>91.22527040661771</v>
       </c>
       <c r="E26" t="n">
-        <v>221.8996150442707</v>
+        <v>136.8232351304409</v>
       </c>
       <c r="F26" t="n">
-        <v>266.0914893186285</v>
+        <v>181.0151094047987</v>
       </c>
       <c r="G26" t="n">
-        <v>294.4592323188931</v>
+        <v>209.5528084890277</v>
       </c>
       <c r="H26" t="n">
-        <v>224.9601906636597</v>
+        <v>141.6243734947301</v>
       </c>
       <c r="I26" t="n">
-        <v>145.7446166661155</v>
+        <v>67.22046867932247</v>
       </c>
       <c r="J26" t="n">
-        <v>19.26149614845033</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>10.59049876910277</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24481,37 +24481,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>86.85614816471269</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.4210307210549615</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.92773680111046</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.9676532874853</v>
+        <v>38.56727723298307</v>
       </c>
       <c r="S26" t="n">
-        <v>118.7359527852703</v>
+        <v>37.53244713477878</v>
       </c>
       <c r="T26" t="n">
-        <v>88.56712082606998</v>
+        <v>4.234723669794236</v>
       </c>
       <c r="U26" t="n">
-        <v>117.567477635669</v>
+        <v>32.50469420855628</v>
       </c>
       <c r="V26" t="n">
-        <v>177.8890692081745</v>
+        <v>92.81268929434469</v>
       </c>
       <c r="W26" t="n">
-        <v>186.673148686523</v>
+        <v>101.5967687726932</v>
       </c>
       <c r="X26" t="n">
-        <v>211.1295264086108</v>
+        <v>126.053146494781</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.6704983241477</v>
+        <v>159.5941184103179</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.2205216855811</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>84.44226255883567</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>50.42200236211789</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>67.59713620872927</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>53.80460718689889</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>39.10052096292038</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>17.41582563827964</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.7935732978132</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>92.45121288220918</v>
+        <v>9.063901825717116</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7063201923727</v>
+        <v>25.99647021476324</v>
       </c>
       <c r="U27" t="n">
-        <v>127.6474236044022</v>
+        <v>42.57702622489589</v>
       </c>
       <c r="V27" t="n">
-        <v>124.7578769413282</v>
+        <v>39.68149702749841</v>
       </c>
       <c r="W27" t="n">
-        <v>163.9967804815583</v>
+        <v>78.92040056772845</v>
       </c>
       <c r="X27" t="n">
-        <v>108.217762126108</v>
+        <v>23.14138221227819</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.6321917929126</v>
+        <v>40.55581187908274</v>
       </c>
     </row>
     <row r="28">
@@ -24600,37 +24600,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.20008451092491</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>90.68254337723634</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>39.42240817778636</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>39.9209709229393</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>174.7665305018606</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.99816803439785</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>105.5690853463604</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24642,34 +24642,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>131.3791998612571</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>182.2027128338766</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1483087199749</v>
+        <v>28.49979674602785</v>
       </c>
       <c r="S28" t="n">
-        <v>121.8390101333496</v>
+        <v>38.09122359613828</v>
       </c>
       <c r="T28" t="n">
-        <v>84.66926330043714</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>162.6072058705109</v>
+        <v>77.53498430840754</v>
       </c>
       <c r="V28" t="n">
-        <v>101.8308367936995</v>
+        <v>16.75445687986965</v>
       </c>
       <c r="W28" t="n">
-        <v>297.2835345659783</v>
+        <v>81.8680416997986</v>
       </c>
       <c r="X28" t="n">
-        <v>84.60292885488442</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,34 +24679,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>227.8305205132693</v>
+        <v>133.8507336184872</v>
       </c>
       <c r="C29" t="n">
-        <v>192.1286811202806</v>
+        <v>98.14889422549845</v>
       </c>
       <c r="D29" t="n">
-        <v>176.3016503204475</v>
+        <v>82.32186342566541</v>
       </c>
       <c r="E29" t="n">
-        <v>221.8996150442707</v>
+        <v>127.9198281494886</v>
       </c>
       <c r="F29" t="n">
-        <v>266.0914893186285</v>
+        <v>172.1117024238465</v>
       </c>
       <c r="G29" t="n">
-        <v>294.4592323188931</v>
+        <v>200.6494015080754</v>
       </c>
       <c r="H29" t="n">
-        <v>224.9601906636596</v>
+        <v>132.7209665137778</v>
       </c>
       <c r="I29" t="n">
-        <v>145.7446166661154</v>
+        <v>58.31706169837016</v>
       </c>
       <c r="J29" t="n">
-        <v>19.26149614845033</v>
+        <v>26.06262290248767</v>
       </c>
       <c r="K29" t="n">
-        <v>10.59049876910277</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24718,37 +24718,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>86.85614816471269</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4210307210549615</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.92773680111046</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.9676532874853</v>
+        <v>29.66387025203078</v>
       </c>
       <c r="S29" t="n">
-        <v>118.7359527852703</v>
+        <v>28.62904015382649</v>
       </c>
       <c r="T29" t="n">
-        <v>88.56712082606998</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>117.567477635669</v>
+        <v>23.60128722760399</v>
       </c>
       <c r="V29" t="n">
-        <v>177.8890692081745</v>
+        <v>83.9092823133924</v>
       </c>
       <c r="W29" t="n">
-        <v>317.0122616388729</v>
+        <v>92.69336179174093</v>
       </c>
       <c r="X29" t="n">
-        <v>211.1295264086108</v>
+        <v>117.1497395138287</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.6704983241477</v>
+        <v>150.6907114293656</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>65.2205216855811</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>84.44226255883567</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>50.42200236211789</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>67.59713620872927</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>53.80460718689889</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>39.10052096292037</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>17.41582563827964</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24797,7 +24797,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.7935732978132</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>92.45121288220918</v>
+        <v>0.160494844764818</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7063201923727</v>
+        <v>17.09306323381094</v>
       </c>
       <c r="U30" t="n">
-        <v>127.6474236044022</v>
+        <v>33.67361924394359</v>
       </c>
       <c r="V30" t="n">
-        <v>124.7578769413282</v>
+        <v>30.77809004654611</v>
       </c>
       <c r="W30" t="n">
-        <v>163.9967804815583</v>
+        <v>70.01699358677615</v>
       </c>
       <c r="X30" t="n">
-        <v>108.217762126108</v>
+        <v>14.23797523132589</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.6321917929126</v>
+        <v>31.65240489813044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.20008451092491</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>34.66441233191577</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>39.42240817778637</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.92097092293929</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>44.42741754951075</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>152.3372809867477</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24879,34 +24879,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.040086908907227</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.86359988152668</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1483087199749</v>
+        <v>19.59638976507555</v>
       </c>
       <c r="S31" t="n">
-        <v>252.1781230856995</v>
+        <v>29.18781661518598</v>
       </c>
       <c r="T31" t="n">
-        <v>84.66926330043714</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9463188228607</v>
+        <v>68.63157732745525</v>
       </c>
       <c r="V31" t="n">
-        <v>232.1699497460494</v>
+        <v>7.851049898917353</v>
       </c>
       <c r="W31" t="n">
-        <v>297.2835345659783</v>
+        <v>72.9646347188463</v>
       </c>
       <c r="X31" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.2142343787162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>157.0721591034851</v>
+        <v>133.8507336184872</v>
       </c>
       <c r="C32" t="n">
-        <v>121.3703197104963</v>
+        <v>98.14889422549845</v>
       </c>
       <c r="D32" t="n">
-        <v>105.5432889106633</v>
+        <v>82.32186342566541</v>
       </c>
       <c r="E32" t="n">
-        <v>151.1412536344865</v>
+        <v>127.9198281494886</v>
       </c>
       <c r="F32" t="n">
-        <v>195.3331279088443</v>
+        <v>172.1117024238465</v>
       </c>
       <c r="G32" t="n">
-        <v>223.7008709091089</v>
+        <v>200.6494015080754</v>
       </c>
       <c r="H32" t="n">
-        <v>154.2018292538754</v>
+        <v>132.7209665137778</v>
       </c>
       <c r="I32" t="n">
-        <v>74.98625525633119</v>
+        <v>58.31706169837016</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>42.20929187770108</v>
+        <v>29.66387025203078</v>
       </c>
       <c r="S32" t="n">
-        <v>47.97759137548601</v>
+        <v>28.62904015382649</v>
       </c>
       <c r="T32" t="n">
-        <v>17.80875941628574</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>46.80911622588471</v>
+        <v>23.60128722760399</v>
       </c>
       <c r="V32" t="n">
-        <v>107.1307077983903</v>
+        <v>83.9092823133924</v>
       </c>
       <c r="W32" t="n">
-        <v>115.9147872767388</v>
+        <v>92.69336179174093</v>
       </c>
       <c r="X32" t="n">
-        <v>140.3711649988266</v>
+        <v>117.1497395138287</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9121369143635</v>
+        <v>150.6907114293656</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>13.68390114905142</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>21.69285147242493</v>
+        <v>0.160494844764818</v>
       </c>
       <c r="T33" t="n">
-        <v>39.94795878258842</v>
+        <v>17.09306323381094</v>
       </c>
       <c r="U33" t="n">
-        <v>56.88906219461794</v>
+        <v>33.67361924394359</v>
       </c>
       <c r="V33" t="n">
-        <v>53.99951553154398</v>
+        <v>30.77809004654611</v>
       </c>
       <c r="W33" t="n">
-        <v>93.23841907177402</v>
+        <v>70.01699358677615</v>
       </c>
       <c r="X33" t="n">
-        <v>37.45940071632376</v>
+        <v>14.23797523132589</v>
       </c>
       <c r="Y33" t="n">
-        <v>54.87383038312831</v>
+        <v>31.65240489813044</v>
       </c>
     </row>
     <row r="34">
@@ -25092,13 +25092,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>13.72477498132614</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>152.3372809867477</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.38994731019068</v>
+        <v>19.59638976507555</v>
       </c>
       <c r="S34" t="n">
-        <v>51.08064872356533</v>
+        <v>29.18781661518598</v>
       </c>
       <c r="T34" t="n">
-        <v>13.91090189065289</v>
+        <v>86.44103262658507</v>
       </c>
       <c r="U34" t="n">
-        <v>91.84884446072661</v>
+        <v>68.63157732745525</v>
       </c>
       <c r="V34" t="n">
-        <v>31.07247538391522</v>
+        <v>7.851049898917353</v>
       </c>
       <c r="W34" t="n">
-        <v>96.18606020384416</v>
+        <v>72.9646347188463</v>
       </c>
       <c r="X34" t="n">
-        <v>13.84456744510018</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.38666609812438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>157.0721591034851</v>
+        <v>133.8507336184873</v>
       </c>
       <c r="C35" t="n">
-        <v>121.3703197104964</v>
+        <v>98.14889422549854</v>
       </c>
       <c r="D35" t="n">
-        <v>105.5432889106633</v>
+        <v>82.3218634256655</v>
       </c>
       <c r="E35" t="n">
-        <v>151.1412536344866</v>
+        <v>127.9198281494887</v>
       </c>
       <c r="F35" t="n">
-        <v>195.3331279088444</v>
+        <v>172.1117024238465</v>
       </c>
       <c r="G35" t="n">
-        <v>223.7008709091089</v>
+        <v>200.6494015080755</v>
       </c>
       <c r="H35" t="n">
-        <v>154.2018292538754</v>
+        <v>132.7209665137779</v>
       </c>
       <c r="I35" t="n">
-        <v>74.98625525633125</v>
+        <v>58.31706169837025</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>42.20929187770113</v>
+        <v>29.66387025203086</v>
       </c>
       <c r="S35" t="n">
-        <v>47.97759137548607</v>
+        <v>28.62904015382657</v>
       </c>
       <c r="T35" t="n">
-        <v>17.8087594162858</v>
+        <v>26.06262290249028</v>
       </c>
       <c r="U35" t="n">
-        <v>46.80911622588476</v>
+        <v>23.60128722760407</v>
       </c>
       <c r="V35" t="n">
-        <v>107.1307077983903</v>
+        <v>83.90928231339248</v>
       </c>
       <c r="W35" t="n">
-        <v>115.9147872767388</v>
+        <v>92.69336179174101</v>
       </c>
       <c r="X35" t="n">
-        <v>140.3711649988266</v>
+        <v>117.1497395138288</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9121369143635</v>
+        <v>150.6907114293657</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>13.68390114905148</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>21.69285147242499</v>
+        <v>0.1604948447649033</v>
       </c>
       <c r="T36" t="n">
-        <v>39.94795878258847</v>
+        <v>17.09306323381102</v>
       </c>
       <c r="U36" t="n">
-        <v>56.88906219461799</v>
+        <v>33.67361924394368</v>
       </c>
       <c r="V36" t="n">
-        <v>53.99951553154403</v>
+        <v>30.7780900465462</v>
       </c>
       <c r="W36" t="n">
-        <v>93.23841907177408</v>
+        <v>70.01699358677624</v>
       </c>
       <c r="X36" t="n">
-        <v>37.45940071632381</v>
+        <v>14.23797523132598</v>
       </c>
       <c r="Y36" t="n">
-        <v>54.87383038312836</v>
+        <v>31.65240489813053</v>
       </c>
     </row>
     <row r="37">
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>205.4520032782702</v>
+        <v>19.59638976507564</v>
       </c>
       <c r="S37" t="n">
-        <v>51.08064872356539</v>
+        <v>29.18781661518607</v>
       </c>
       <c r="T37" t="n">
-        <v>13.91090189065295</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>91.84884446072667</v>
+        <v>68.63157732745533</v>
       </c>
       <c r="V37" t="n">
-        <v>31.07247538391528</v>
+        <v>7.851049898917438</v>
       </c>
       <c r="W37" t="n">
-        <v>96.18606020384422</v>
+        <v>72.96463471884638</v>
       </c>
       <c r="X37" t="n">
-        <v>13.84456744510024</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.38666609812444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>157.0721591034851</v>
+        <v>133.8507336184872</v>
       </c>
       <c r="C38" t="n">
-        <v>121.3703197104964</v>
+        <v>98.14889422549842</v>
       </c>
       <c r="D38" t="n">
-        <v>105.5432889106633</v>
+        <v>82.32186342566538</v>
       </c>
       <c r="E38" t="n">
-        <v>151.1412536344866</v>
+        <v>127.9198281494886</v>
       </c>
       <c r="F38" t="n">
-        <v>195.3331279088444</v>
+        <v>172.1117024238464</v>
       </c>
       <c r="G38" t="n">
-        <v>223.7008709091089</v>
+        <v>200.6494015080754</v>
       </c>
       <c r="H38" t="n">
-        <v>154.2018292538754</v>
+        <v>132.7209665137777</v>
       </c>
       <c r="I38" t="n">
-        <v>74.98625525633125</v>
+        <v>58.31706169837013</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.20929187770113</v>
+        <v>29.66387025203075</v>
       </c>
       <c r="S38" t="n">
-        <v>47.97759137548607</v>
+        <v>28.62904015382646</v>
       </c>
       <c r="T38" t="n">
-        <v>17.8087594162858</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>46.80911622588476</v>
+        <v>23.60128722760396</v>
       </c>
       <c r="V38" t="n">
-        <v>107.1307077983903</v>
+        <v>83.90928231339237</v>
       </c>
       <c r="W38" t="n">
-        <v>115.9147872767388</v>
+        <v>92.6933617917409</v>
       </c>
       <c r="X38" t="n">
-        <v>140.3711649988266</v>
+        <v>117.1497395138287</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9121369143635</v>
+        <v>150.6907114293656</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>13.68390114905148</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>21.69285147242499</v>
+        <v>0.1604948447647896</v>
       </c>
       <c r="T39" t="n">
-        <v>39.94795878258847</v>
+        <v>17.09306323381091</v>
       </c>
       <c r="U39" t="n">
-        <v>56.88906219461799</v>
+        <v>33.67361924394356</v>
       </c>
       <c r="V39" t="n">
-        <v>53.99951553154403</v>
+        <v>30.77809004654608</v>
       </c>
       <c r="W39" t="n">
-        <v>93.23841907177408</v>
+        <v>70.01699358677612</v>
       </c>
       <c r="X39" t="n">
-        <v>37.45940071632381</v>
+        <v>14.23797523132586</v>
       </c>
       <c r="Y39" t="n">
-        <v>54.87383038312836</v>
+        <v>31.65240489813041</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>86.4410326265828</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25575,13 +25575,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>120.8581989270142</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>45.20385704106574</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.38994731019073</v>
+        <v>19.59638976507552</v>
       </c>
       <c r="S40" t="n">
-        <v>51.08064872356539</v>
+        <v>29.18781661518595</v>
       </c>
       <c r="T40" t="n">
-        <v>13.91090189065295</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>91.84884446072667</v>
+        <v>68.63157732745522</v>
       </c>
       <c r="V40" t="n">
-        <v>31.07247538391528</v>
+        <v>7.851049898917324</v>
       </c>
       <c r="W40" t="n">
-        <v>96.18606020384422</v>
+        <v>72.96463471884627</v>
       </c>
       <c r="X40" t="n">
-        <v>13.84456744510024</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.38666609812444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,76 +25627,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>287.411272055835</v>
+        <v>349.2662264846669</v>
       </c>
       <c r="C41" t="n">
-        <v>251.7094326628463</v>
+        <v>313.5643870916782</v>
       </c>
       <c r="D41" t="n">
-        <v>306.6407632727974</v>
+        <v>297.7373562918451</v>
       </c>
       <c r="E41" t="n">
-        <v>352.2387279966206</v>
+        <v>343.3353210156683</v>
       </c>
       <c r="F41" t="n">
-        <v>325.6722408611943</v>
+        <v>387.5271952900262</v>
       </c>
       <c r="G41" t="n">
-        <v>354.0399838614588</v>
+        <v>416.0648943742551</v>
       </c>
       <c r="H41" t="n">
-        <v>284.5409422062253</v>
+        <v>348.1364593799574</v>
       </c>
       <c r="I41" t="n">
-        <v>205.3253682086811</v>
+        <v>273.7325545645498</v>
       </c>
       <c r="J41" t="n">
-        <v>78.84224769101604</v>
+        <v>155.1220123012198</v>
       </c>
       <c r="K41" t="n">
-        <v>118.1328884717574</v>
+        <v>153.6452559560845</v>
       </c>
       <c r="L41" t="n">
-        <v>43.50621002267724</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M41" t="n">
-        <v>4.400328263317931</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>90.22394750023454</v>
       </c>
       <c r="O41" t="n">
-        <v>16.09778675492851</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P41" t="n">
-        <v>60.00178226362067</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q41" t="n">
-        <v>106.5084883436762</v>
+        <v>192.5330838524239</v>
       </c>
       <c r="R41" t="n">
-        <v>172.548404830051</v>
+        <v>245.0793631182105</v>
       </c>
       <c r="S41" t="n">
-        <v>178.316704327836</v>
+        <v>244.0445330200062</v>
       </c>
       <c r="T41" t="n">
-        <v>148.1478723686357</v>
+        <v>210.7468095550217</v>
       </c>
       <c r="U41" t="n">
-        <v>177.1482291782347</v>
+        <v>239.0167800937837</v>
       </c>
       <c r="V41" t="n">
-        <v>237.4698207507402</v>
+        <v>299.3247751795721</v>
       </c>
       <c r="W41" t="n">
-        <v>246.2539002290887</v>
+        <v>308.1088546579206</v>
       </c>
       <c r="X41" t="n">
-        <v>270.7102779511765</v>
+        <v>332.5652323800084</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.2512498667134</v>
+        <v>366.1062042955453</v>
       </c>
     </row>
     <row r="42">
@@ -25706,76 +25706,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>124.8012732281468</v>
+        <v>186.6562276569787</v>
       </c>
       <c r="C42" t="n">
-        <v>144.0230141014014</v>
+        <v>205.8779685302333</v>
       </c>
       <c r="D42" t="n">
-        <v>110.0027539046836</v>
+        <v>171.8577083335155</v>
       </c>
       <c r="E42" t="n">
-        <v>127.177887751295</v>
+        <v>189.0328421801269</v>
       </c>
       <c r="F42" t="n">
-        <v>113.3853587294646</v>
+        <v>175.2403131582965</v>
       </c>
       <c r="G42" t="n">
-        <v>98.68127250548608</v>
+        <v>160.6271614560353</v>
       </c>
       <c r="H42" t="n">
-        <v>76.99657718084535</v>
+        <v>139.7297676483686</v>
       </c>
       <c r="I42" t="n">
-        <v>59.58075154256571</v>
+        <v>124.5665656007014</v>
       </c>
       <c r="J42" t="n">
-        <v>49.2306166100548</v>
+        <v>119.6768891630691</v>
       </c>
       <c r="K42" t="n">
-        <v>6.037479066118067</v>
+        <v>82.57636457419534</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>38.06796106163162</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.13732687699391</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>27.56847907750753</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>52.10206532784852</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.1109056471342</v>
+        <v>113.8152105962782</v>
       </c>
       <c r="R42" t="n">
-        <v>109.3743248403789</v>
+        <v>176.8751963281183</v>
       </c>
       <c r="S42" t="n">
-        <v>222.7903258345591</v>
+        <v>215.5759877109445</v>
       </c>
       <c r="T42" t="n">
-        <v>170.2870717349384</v>
+        <v>232.5085560999906</v>
       </c>
       <c r="U42" t="n">
-        <v>187.2281751469679</v>
+        <v>249.0891121101233</v>
       </c>
       <c r="V42" t="n">
-        <v>184.3386284838939</v>
+        <v>246.1935829127258</v>
       </c>
       <c r="W42" t="n">
-        <v>223.577532024124</v>
+        <v>285.4324864529559</v>
       </c>
       <c r="X42" t="n">
-        <v>167.7985136686737</v>
+        <v>229.6534680975056</v>
       </c>
       <c r="Y42" t="n">
-        <v>185.2129433354783</v>
+        <v>247.0678977643101</v>
       </c>
     </row>
     <row r="43">
@@ -25785,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.5391974632748</v>
+        <v>164.6357904823225</v>
       </c>
       <c r="C43" t="n">
-        <v>94.24516387448148</v>
+        <v>156.1001183033134</v>
       </c>
       <c r="D43" t="n">
-        <v>68.10477420075307</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E43" t="n">
-        <v>62.15906307103441</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F43" t="n">
-        <v>56.21335194131578</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.7615211301363</v>
+        <v>160.9343505975032</v>
       </c>
       <c r="H43" t="n">
-        <v>99.501722465505</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I43" t="n">
-        <v>104.0081690920765</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J43" t="n">
-        <v>81.57891957696356</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K43" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L43" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M43" t="n">
-        <v>35.20124539375763</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N43" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O43" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P43" t="n">
-        <v>60.62083845147293</v>
+        <v>131.6962447752098</v>
       </c>
       <c r="Q43" t="n">
-        <v>182.2027128338766</v>
+        <v>179.6830688117314</v>
       </c>
       <c r="R43" t="n">
-        <v>169.7290602625406</v>
+        <v>235.0118826312552</v>
       </c>
       <c r="S43" t="n">
-        <v>181.4197616759153</v>
+        <v>244.6033094813657</v>
       </c>
       <c r="T43" t="n">
-        <v>215.008376252787</v>
+        <v>206.4307068237443</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9463188228607</v>
+        <v>284.047070193635</v>
       </c>
       <c r="V43" t="n">
-        <v>232.1699497460494</v>
+        <v>223.2665427650971</v>
       </c>
       <c r="W43" t="n">
-        <v>226.5251731561941</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X43" t="n">
-        <v>144.1836803974501</v>
+        <v>206.038634826282</v>
       </c>
       <c r="Y43" t="n">
-        <v>143.7257790504743</v>
+        <v>205.5807334793062</v>
       </c>
     </row>
     <row r="44">
@@ -25864,76 +25864,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>287.411272055835</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C44" t="n">
-        <v>251.7094326628463</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D44" t="n">
         <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>281.4803665868365</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F44" t="n">
-        <v>325.6722408611943</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>354.0399838614588</v>
+        <v>424.9683013552074</v>
       </c>
       <c r="H44" t="n">
-        <v>284.5409422062253</v>
+        <v>357.0398663609097</v>
       </c>
       <c r="I44" t="n">
-        <v>276.0837296184653</v>
+        <v>282.6359615455021</v>
       </c>
       <c r="J44" t="n">
-        <v>78.84224769101604</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K44" t="n">
-        <v>70.17125031166847</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L44" t="n">
-        <v>43.50621002267724</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M44" t="n">
-        <v>4.400328263317931</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O44" t="n">
-        <v>16.09778675492851</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P44" t="n">
-        <v>60.00178226362067</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q44" t="n">
-        <v>106.5084883436762</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R44" t="n">
-        <v>172.548404830051</v>
+        <v>253.9827700991628</v>
       </c>
       <c r="S44" t="n">
-        <v>178.316704327836</v>
+        <v>252.9479400009585</v>
       </c>
       <c r="T44" t="n">
-        <v>148.1478723686357</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U44" t="n">
-        <v>177.1482291782347</v>
+        <v>247.920187074736</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>246.2539002290887</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>270.7102779511765</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>304.2512498667134</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="45">
@@ -25943,76 +25943,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>152.7620126880315</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C45" t="n">
-        <v>144.0230141014014</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D45" t="n">
-        <v>110.0027539046836</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E45" t="n">
-        <v>127.177887751295</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F45" t="n">
-        <v>113.3853587294646</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>98.68127250548608</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H45" t="n">
-        <v>76.99657718084535</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I45" t="n">
-        <v>59.58075154256571</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J45" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K45" t="n">
-        <v>6.037479066118067</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.35254423735</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R45" t="n">
-        <v>109.3743248403789</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S45" t="n">
-        <v>152.0319644247749</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T45" t="n">
-        <v>170.2870717349384</v>
+        <v>241.4119630809429</v>
       </c>
       <c r="U45" t="n">
-        <v>187.2281751469679</v>
+        <v>257.9925190910756</v>
       </c>
       <c r="V45" t="n">
-        <v>184.3386284838939</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W45" t="n">
-        <v>223.577532024124</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X45" t="n">
-        <v>167.7985136686737</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y45" t="n">
-        <v>185.2129433354783</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="46">
@@ -26025,61 +26025,61 @@
         <v>173.5391974632748</v>
       </c>
       <c r="C46" t="n">
-        <v>94.24516387448148</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D46" t="n">
-        <v>68.10477420075307</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E46" t="n">
-        <v>62.15906307103441</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F46" t="n">
-        <v>56.21335194131578</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>99.00315972035207</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H46" t="n">
-        <v>170.2600838752892</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I46" t="n">
-        <v>104.0081690920765</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J46" t="n">
-        <v>81.57891957696356</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K46" t="n">
-        <v>50.09983751723004</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L46" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M46" t="n">
-        <v>35.20124539375763</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N46" t="n">
-        <v>19.78430863678459</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O46" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P46" t="n">
-        <v>60.62083845147293</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q46" t="n">
-        <v>111.4443514240924</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R46" t="n">
-        <v>240.4874216723248</v>
+        <v>243.9152896122075</v>
       </c>
       <c r="S46" t="n">
-        <v>181.4197616759153</v>
+        <v>253.506716462318</v>
       </c>
       <c r="T46" t="n">
-        <v>215.008376252787</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U46" t="n">
-        <v>222.1879574130766</v>
+        <v>292.9504771745873</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666268.7645135127</v>
+        <v>693310.1722245597</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666268.7645135127</v>
+        <v>693310.1722245599</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666268.7645135126</v>
+        <v>693310.1722245599</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666268.7645135127</v>
+        <v>693310.1722245602</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666268.7645135127</v>
+        <v>693310.1722245599</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498636.8713332775</v>
+        <v>669563.6689617452</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498636.8713332776</v>
+        <v>689530.0933209496</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657316.7422964032</v>
+        <v>689530.0933209495</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657316.7422964029</v>
+        <v>689530.0933209492</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657316.7422964029</v>
+        <v>689530.0933209496</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365023.461153981</v>
+        <v>206447.9256389697</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365023.4611539812</v>
+        <v>186481.5012797652</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947141.6767557426</v>
+        <v>947141.6767557428</v>
       </c>
       <c r="C2" t="n">
         <v>947141.6767557425</v>
@@ -26322,40 +26322,40 @@
         <v>947141.6767557428</v>
       </c>
       <c r="E2" t="n">
-        <v>791194.1578597957</v>
+        <v>823305.8295166654</v>
       </c>
       <c r="F2" t="n">
-        <v>791194.1578597957</v>
+        <v>823305.8295166661</v>
       </c>
       <c r="G2" t="n">
-        <v>791194.1578597957</v>
+        <v>823305.8295166659</v>
       </c>
       <c r="H2" t="n">
-        <v>791194.1578597957</v>
+        <v>823305.829516666</v>
       </c>
       <c r="I2" t="n">
-        <v>791194.1578597957</v>
+        <v>823305.8295166659</v>
       </c>
       <c r="J2" t="n">
-        <v>592131.2847082667</v>
+        <v>795106.8568920735</v>
       </c>
       <c r="K2" t="n">
-        <v>592131.2847082668</v>
+        <v>818816.9858186283</v>
       </c>
       <c r="L2" t="n">
-        <v>780563.6314769797</v>
+        <v>818816.9858186282</v>
       </c>
       <c r="M2" t="n">
-        <v>780563.6314769796</v>
+        <v>818816.9858186279</v>
       </c>
       <c r="N2" t="n">
-        <v>780563.6314769796</v>
+        <v>818816.9858186283</v>
       </c>
       <c r="O2" t="n">
-        <v>433465.3601203532</v>
+        <v>245156.9116962765</v>
       </c>
       <c r="P2" t="n">
-        <v>433465.3601203532</v>
+        <v>221446.7827697212</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504548.9622897933</v>
+        <v>487315.9607566318</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>104271.2903618799</v>
+        <v>172332.3942929438</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7122.72558476184</v>
       </c>
       <c r="L3" t="n">
-        <v>56606.68912782735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>328137.6834104117</v>
+        <v>361601.3979115863</v>
       </c>
       <c r="F4" t="n">
-        <v>328137.6834104117</v>
+        <v>361601.3979115864</v>
       </c>
       <c r="G4" t="n">
-        <v>328137.6834104116</v>
+        <v>361601.3979115864</v>
       </c>
       <c r="H4" t="n">
-        <v>328137.6834104117</v>
+        <v>361601.3979115864</v>
       </c>
       <c r="I4" t="n">
-        <v>328137.6834104117</v>
+        <v>361601.3979115864</v>
       </c>
       <c r="J4" t="n">
-        <v>208539.2266073608</v>
+        <v>344659.2451337273</v>
       </c>
       <c r="K4" t="n">
-        <v>208539.2266073608</v>
+        <v>358904.4671850478</v>
       </c>
       <c r="L4" t="n">
-        <v>321750.7839838103</v>
+        <v>358904.4671850478</v>
       </c>
       <c r="M4" t="n">
-        <v>321750.7839838101</v>
+        <v>358904.4671850476</v>
       </c>
       <c r="N4" t="n">
-        <v>321750.7839838101</v>
+        <v>358904.4671850479</v>
       </c>
       <c r="O4" t="n">
-        <v>113211.5573764496</v>
+        <v>14245.22205132051</v>
       </c>
       <c r="P4" t="n">
-        <v>113211.5573764496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26480.36882956174</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="F5" t="n">
-        <v>26480.36882956174</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="G5" t="n">
-        <v>26480.36882956173</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="H5" t="n">
-        <v>26480.36882956174</v>
+        <v>27317.0558893093</v>
       </c>
       <c r="I5" t="n">
-        <v>26480.36882956174</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="J5" t="n">
-        <v>20196.1910917223</v>
+        <v>26426.84792038021</v>
       </c>
       <c r="K5" t="n">
-        <v>20196.1910917223</v>
+        <v>27175.34844186189</v>
       </c>
       <c r="L5" t="n">
-        <v>26144.77577708145</v>
+        <v>27175.34844186189</v>
       </c>
       <c r="M5" t="n">
-        <v>26144.77577708144</v>
+        <v>27175.34844186188</v>
       </c>
       <c r="N5" t="n">
-        <v>26144.77577708144</v>
+        <v>27175.34844186189</v>
       </c>
       <c r="O5" t="n">
-        <v>15187.29689029034</v>
+        <v>9065.583372095025</v>
       </c>
       <c r="P5" t="n">
-        <v>15187.29689029034</v>
+        <v>8317.082850613346</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344464.3030814064</v>
+        <v>344411.5640212141</v>
       </c>
       <c r="C6" t="n">
-        <v>344464.3030814063</v>
+        <v>344411.5640212139</v>
       </c>
       <c r="D6" t="n">
-        <v>344464.3030814065</v>
+        <v>344411.5640212141</v>
       </c>
       <c r="E6" t="n">
-        <v>-67972.85666997102</v>
+        <v>-56240.16218629337</v>
       </c>
       <c r="F6" t="n">
-        <v>436576.1056198223</v>
+        <v>431075.798570339</v>
       </c>
       <c r="G6" t="n">
-        <v>436576.1056198224</v>
+        <v>431075.7985703388</v>
       </c>
       <c r="H6" t="n">
-        <v>436576.1056198223</v>
+        <v>431075.7985703388</v>
       </c>
       <c r="I6" t="n">
-        <v>436576.1056198223</v>
+        <v>431075.7985703389</v>
       </c>
       <c r="J6" t="n">
-        <v>259124.5766473037</v>
+        <v>247634.7141726279</v>
       </c>
       <c r="K6" t="n">
-        <v>363395.8670091837</v>
+        <v>422184.7399957876</v>
       </c>
       <c r="L6" t="n">
-        <v>376061.3825882606</v>
+        <v>429307.4655805493</v>
       </c>
       <c r="M6" t="n">
-        <v>432668.071716088</v>
+        <v>429307.4655805491</v>
       </c>
       <c r="N6" t="n">
-        <v>432668.071716088</v>
+        <v>429307.4655805494</v>
       </c>
       <c r="O6" t="n">
-        <v>305066.5058536133</v>
+        <v>203320.0839216299</v>
       </c>
       <c r="P6" t="n">
-        <v>305066.5058536133</v>
+        <v>193979.7268066517</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F2" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G2" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H2" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J2" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="K2" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="L2" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="M2" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="N2" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="O2" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="P2" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="F3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="G3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="H3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="I3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="J3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="K3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="L3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="M3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="N3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="O3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="P3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,19 +26925,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="L2" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,16 +27162,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
     </row>
     <row r="3">
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J11" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K11" t="n">
-        <v>140.9296117214527</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L11" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526677</v>
       </c>
       <c r="M11" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N11" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O11" t="n">
-        <v>86.85614816471342</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P11" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T11" t="n">
-        <v>205.0893507075205</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="12">
@@ -28171,7 +28171,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C12" t="n">
-        <v>205.0893507075205</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D12" t="n">
         <v>180.7611153144678</v>
@@ -28183,61 +28183,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H12" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I12" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J12" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K12" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L12" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P12" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R12" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S12" t="n">
-        <v>205.0893507075205</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T12" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U12" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V12" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W12" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X12" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="13">
@@ -28262,61 +28262,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H13" t="n">
-        <v>170.2600838752892</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I13" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J13" t="n">
-        <v>152.3372809867477</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K13" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L13" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M13" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N13" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O13" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P13" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R13" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S13" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T13" t="n">
-        <v>205.0893507075205</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U13" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V13" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W13" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X13" t="n">
-        <v>205.0893507075205</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y13" t="n">
-        <v>205.0893507075205</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J14" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K14" t="n">
-        <v>140.9296117214527</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L14" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M14" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N14" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O14" t="n">
-        <v>86.85614816471269</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P14" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T14" t="n">
-        <v>205.0893507075205</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="15">
@@ -28408,7 +28408,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C15" t="n">
-        <v>205.0893507075205</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D15" t="n">
         <v>180.7611153144678</v>
@@ -28420,61 +28420,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H15" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I15" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J15" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K15" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L15" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P15" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R15" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S15" t="n">
-        <v>205.0893507075205</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T15" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U15" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V15" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W15" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X15" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="16">
@@ -28499,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H16" t="n">
-        <v>170.2600838752892</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I16" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J16" t="n">
-        <v>152.3372809867477</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K16" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L16" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M16" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N16" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R16" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S16" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T16" t="n">
-        <v>205.0893507075205</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U16" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V16" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W16" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X16" t="n">
-        <v>205.0893507075205</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.0893507075205</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J17" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K17" t="n">
-        <v>140.9296117214527</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L17" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M17" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N17" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O17" t="n">
-        <v>86.85614816471269</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P17" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T17" t="n">
-        <v>205.0893507075205</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y17" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="18">
@@ -28645,7 +28645,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C18" t="n">
-        <v>205.0893507075205</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D18" t="n">
         <v>180.7611153144678</v>
@@ -28657,61 +28657,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H18" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293209</v>
       </c>
       <c r="I18" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J18" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K18" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L18" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P18" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R18" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S18" t="n">
-        <v>205.0893507075205</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T18" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U18" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V18" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W18" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X18" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="19">
@@ -28736,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H19" t="n">
-        <v>170.2600838752892</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I19" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J19" t="n">
-        <v>152.3372809867477</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K19" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L19" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M19" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N19" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P19" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R19" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S19" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T19" t="n">
-        <v>205.0893507075205</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U19" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V19" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W19" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X19" t="n">
-        <v>205.0893507075205</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.0893507075205</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="C20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="D20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="E20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="F20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="G20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="H20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="J20" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K20" t="n">
-        <v>140.9296117214527</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L20" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M20" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N20" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O20" t="n">
-        <v>86.85614816471269</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P20" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="S20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="T20" t="n">
-        <v>205.0893507075205</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="V20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="W20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="X20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="Y20" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
     </row>
     <row r="21">
@@ -28882,7 +28882,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C21" t="n">
-        <v>205.0893507075205</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D21" t="n">
         <v>180.7611153144678</v>
@@ -28894,61 +28894,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H21" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I21" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J21" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K21" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L21" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P21" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R21" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S21" t="n">
-        <v>205.0893507075205</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T21" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="U21" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="V21" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="W21" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="X21" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
     </row>
     <row r="22">
@@ -28973,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H22" t="n">
-        <v>170.2600838752892</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I22" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J22" t="n">
-        <v>152.3372809867477</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K22" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L22" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M22" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N22" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O22" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P22" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R22" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="S22" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="T22" t="n">
-        <v>205.0893507075205</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U22" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="V22" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="W22" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618843</v>
       </c>
       <c r="X22" t="n">
-        <v>205.0893507075205</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y22" t="n">
-        <v>205.0893507075205</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J23" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K23" t="n">
-        <v>140.9296117214527</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L23" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M23" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N23" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O23" t="n">
-        <v>86.85614816471269</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P23" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T23" t="n">
-        <v>205.0893507075205</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y23" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="24">
@@ -29119,7 +29119,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C24" t="n">
-        <v>205.0893507075205</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D24" t="n">
         <v>180.7611153144678</v>
@@ -29131,61 +29131,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H24" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I24" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J24" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K24" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L24" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P24" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R24" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S24" t="n">
-        <v>205.0893507075205</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T24" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U24" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V24" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W24" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X24" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="25">
@@ -29210,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H25" t="n">
-        <v>170.2600838752892</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I25" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J25" t="n">
-        <v>152.3372809867477</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K25" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L25" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M25" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N25" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O25" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P25" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q25" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R25" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S25" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T25" t="n">
-        <v>205.0893507075205</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U25" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V25" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W25" t="n">
-        <v>205.0893507075205</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X25" t="n">
-        <v>205.0893507075205</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.0893507075205</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="C26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="E26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="F26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="G26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="H26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="I26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="J26" t="n">
-        <v>130.3391129523499</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K26" t="n">
-        <v>130.3391129523499</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L26" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M26" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N26" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P26" t="n">
-        <v>130.3391129523499</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>130.3391129523499</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="S26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="T26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="U26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="V26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="W26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="X26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="Y26" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>130.3391129523499</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C27" t="n">
-        <v>130.3391129523499</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D27" t="n">
-        <v>130.3391129523499</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E27" t="n">
-        <v>130.3391129523499</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F27" t="n">
-        <v>130.3391129523499</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>130.3391129523499</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H27" t="n">
-        <v>130.3391129523499</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I27" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J27" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K27" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L27" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P27" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R27" t="n">
-        <v>130.3391129523499</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S27" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="T27" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="U27" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="V27" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="W27" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="X27" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="Y27" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.3391129523499</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>36.28916997386362</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>130.3391129523499</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H28" t="n">
-        <v>130.3391129523499</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J28" t="n">
-        <v>130.3391129523499</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K28" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M28" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N28" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O28" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R28" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="S28" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="T28" t="n">
-        <v>130.3391129523499</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U28" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="V28" t="n">
-        <v>130.3391129523499</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>215.4154928661797</v>
       </c>
       <c r="X28" t="n">
-        <v>130.3391129523499</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="C29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="D29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="E29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="F29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="G29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="H29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="I29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="J29" t="n">
-        <v>130.3391129523499</v>
+        <v>137.9627963796844</v>
       </c>
       <c r="K29" t="n">
-        <v>130.3391129523499</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L29" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M29" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N29" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P29" t="n">
-        <v>130.3391129523499</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q29" t="n">
-        <v>130.3391129523499</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="S29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T29" t="n">
-        <v>130.3391129523499</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="Y29" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>130.3391129523499</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C30" t="n">
-        <v>130.3391129523499</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D30" t="n">
-        <v>130.3391129523499</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E30" t="n">
-        <v>130.3391129523499</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F30" t="n">
-        <v>130.3391129523499</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>130.3391129523499</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H30" t="n">
-        <v>130.3391129523499</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I30" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J30" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K30" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L30" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P30" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R30" t="n">
-        <v>130.3391129523499</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S30" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T30" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="U30" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V30" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W30" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X30" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="Y30" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.3391129523499</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C31" t="n">
-        <v>130.3391129523499</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>130.3391129523499</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H31" t="n">
-        <v>130.3391129523499</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I31" t="n">
-        <v>130.3391129523499</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K31" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L31" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M31" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N31" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O31" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P31" t="n">
-        <v>130.3391129523499</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.3391129523499</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R31" t="n">
-        <v>130.3391129523499</v>
+        <v>224.318899847132</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3391129523499</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.26990608154235</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="C32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="D32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="E32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="F32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="G32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="H32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="I32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="J32" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K32" t="n">
-        <v>140.9296117214526</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L32" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M32" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N32" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O32" t="n">
-        <v>86.85614816471269</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P32" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="S32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T32" t="n">
-        <v>201.0974743621341</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="Y32" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
     </row>
     <row r="33">
@@ -29830,7 +29830,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C33" t="n">
-        <v>201.0974743621341</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D33" t="n">
         <v>180.7611153144678</v>
@@ -29842,61 +29842,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H33" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I33" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J33" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K33" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L33" t="n">
-        <v>27.22701059689194</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P33" t="n">
-        <v>43.64096701700126</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R33" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S33" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T33" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="U33" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V33" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W33" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X33" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="Y33" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
     </row>
     <row r="34">
@@ -29921,61 +29921,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H34" t="n">
-        <v>156.535308893963</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I34" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K34" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L34" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M34" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N34" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O34" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P34" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q34" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R34" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="S34" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T34" t="n">
-        <v>201.0974743621341</v>
+        <v>128.8930811781116</v>
       </c>
       <c r="U34" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V34" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W34" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X34" t="n">
-        <v>201.0974743621341</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.0974743621341</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="C35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="D35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="E35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="F35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="G35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="H35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="I35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="J35" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K35" t="n">
-        <v>140.9296117214527</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L35" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M35" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N35" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O35" t="n">
-        <v>86.85614816471269</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P35" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="S35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="T35" t="n">
-        <v>201.0974743621341</v>
+        <v>193.5875936334837</v>
       </c>
       <c r="U35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="V35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="W35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="X35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="Y35" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
     </row>
     <row r="36">
@@ -30067,7 +30067,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C36" t="n">
-        <v>201.0974743621341</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D36" t="n">
         <v>180.7611153144678</v>
@@ -30079,61 +30079,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H36" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I36" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J36" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K36" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L36" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P36" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R36" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S36" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="T36" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="U36" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="V36" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="W36" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="X36" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="Y36" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
     </row>
     <row r="37">
@@ -30158,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H37" t="n">
-        <v>170.2600838752892</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I37" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J37" t="n">
-        <v>152.3372809867477</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K37" t="n">
-        <v>120.8581989270142</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L37" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M37" t="n">
-        <v>105.9596068035418</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N37" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O37" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P37" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q37" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R37" t="n">
-        <v>35.03541839405462</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="S37" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="T37" t="n">
-        <v>201.0974743621341</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U37" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="V37" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="W37" t="n">
-        <v>201.0974743621341</v>
+        <v>224.3188998471319</v>
       </c>
       <c r="X37" t="n">
-        <v>201.0974743621341</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.0974743621341</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="C38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="D38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="E38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="F38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="G38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="H38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="I38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="J38" t="n">
-        <v>149.6006091008002</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K38" t="n">
-        <v>140.9296117214527</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L38" t="n">
-        <v>114.2645714324614</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M38" t="n">
-        <v>75.15868967310212</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N38" t="n">
-        <v>68.80166552921241</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O38" t="n">
-        <v>86.85614816471269</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P38" t="n">
-        <v>130.7601436734049</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2668497534603</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="S38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T38" t="n">
-        <v>201.0974743621341</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="Y38" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
     </row>
     <row r="39">
@@ -30304,7 +30304,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C39" t="n">
-        <v>201.0974743621341</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D39" t="n">
         <v>180.7611153144678</v>
@@ -30316,61 +30316,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.4396339152703</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H39" t="n">
-        <v>147.7549385906295</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I39" t="n">
-        <v>130.3391129523499</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J39" t="n">
-        <v>119.988978019839</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K39" t="n">
-        <v>76.79584047590225</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L39" t="n">
-        <v>27.22701059689192</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>14.83625009529541</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P39" t="n">
-        <v>43.64096701700123</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.1109056471342</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R39" t="n">
-        <v>180.1326862501631</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S39" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T39" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="U39" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V39" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W39" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X39" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="Y39" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
     </row>
     <row r="40">
@@ -30395,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.7615211301363</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H40" t="n">
-        <v>170.2600838752892</v>
+        <v>84.4968625801268</v>
       </c>
       <c r="I40" t="n">
-        <v>174.7665305018606</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J40" t="n">
-        <v>152.3372809867477</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L40" t="n">
-        <v>105.5690853463604</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M40" t="n">
-        <v>60.75574976247608</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N40" t="n">
-        <v>90.54267004656877</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O40" t="n">
-        <v>116.9730019489985</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P40" t="n">
-        <v>131.3791998612571</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q40" t="n">
-        <v>182.2027128338766</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R40" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="S40" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="T40" t="n">
-        <v>201.0974743621341</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U40" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="V40" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="W40" t="n">
-        <v>201.0974743621341</v>
+        <v>224.318899847132</v>
       </c>
       <c r="X40" t="n">
-        <v>201.0974743621341</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.0974743621341</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="41">
@@ -30459,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="C41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="F41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="G41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="H41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="I41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="J41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="K41" t="n">
-        <v>22.79672324969523</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="L41" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>68.80166552921241</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="O41" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.75836140978419</v>
+        <v>3.08711096324498</v>
       </c>
       <c r="R41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="S41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="T41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="U41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="V41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="W41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="X41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="Y41" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="C42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="D42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="E42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="F42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="G42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="H42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="I42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="J42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="K42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="L42" t="n">
-        <v>27.22701059689192</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.83625009529541</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="P42" t="n">
-        <v>43.64096701700123</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="R42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="T42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="U42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="V42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="W42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="X42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="Y42" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
     </row>
     <row r="43">
@@ -30617,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="C43" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="D43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="H43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="R43" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="S43" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="W43" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.75836140978419</v>
+        <v>8.903406980952299</v>
       </c>
     </row>
     <row r="44">
@@ -30696,76 +30696,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30775,37 +30775,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42.79762194989953</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -30814,37 +30814,37 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>43.64096701700123</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30857,61 +30857,61 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>70.75836140978419</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H11" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I11" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J11" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K11" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L11" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M11" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N11" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O11" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P11" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R11" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S11" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T11" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U11" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H12" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I12" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J12" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K12" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L12" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M12" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N12" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P12" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S12" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T12" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H13" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I13" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J13" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K13" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L13" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M13" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N13" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O13" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P13" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R13" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S13" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T13" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H14" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I14" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J14" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K14" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L14" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M14" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N14" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O14" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P14" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R14" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S14" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T14" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U14" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H15" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I15" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J15" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K15" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L15" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M15" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N15" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P15" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S15" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T15" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H16" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I16" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J16" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K16" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L16" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M16" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N16" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O16" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P16" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R16" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S16" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T16" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H17" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I17" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J17" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K17" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L17" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M17" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N17" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O17" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P17" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R17" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S17" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T17" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U17" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H18" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I18" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J18" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K18" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L18" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M18" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N18" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P18" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S18" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T18" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H19" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I19" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J19" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K19" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L19" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M19" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N19" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O19" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P19" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R19" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S19" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T19" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H20" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I20" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J20" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K20" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L20" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M20" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N20" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O20" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P20" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R20" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S20" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T20" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U20" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H21" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I21" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J21" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K21" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L21" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M21" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N21" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P21" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S21" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T21" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H22" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I22" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J22" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K22" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M22" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N22" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O22" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P22" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R22" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S22" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T22" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H23" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I23" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J23" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K23" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L23" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M23" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N23" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O23" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P23" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R23" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S23" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T23" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U23" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H24" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I24" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J24" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K24" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L24" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M24" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N24" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P24" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S24" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T24" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H25" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I25" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J25" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K25" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L25" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M25" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N25" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O25" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P25" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R25" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S25" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T25" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H26" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I26" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J26" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K26" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L26" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M26" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N26" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O26" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P26" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R26" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S26" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T26" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U26" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H27" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I27" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J27" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K27" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L27" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M27" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N27" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P27" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T27" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H28" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I28" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J28" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K28" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L28" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M28" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N28" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O28" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P28" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R28" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S28" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T28" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H29" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I29" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J29" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K29" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L29" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M29" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N29" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O29" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P29" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R29" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S29" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T29" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U29" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H30" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I30" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J30" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K30" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L30" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M30" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N30" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P30" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S30" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T30" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H31" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I31" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J31" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K31" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L31" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M31" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N31" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O31" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P31" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R31" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S31" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T31" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H32" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I32" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J32" t="n">
-        <v>144.5989857550651</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K32" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L32" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M32" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N32" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P32" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R32" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S32" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T32" t="n">
-        <v>7.457924978486244</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U32" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9115572021483087</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H33" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I33" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J33" t="n">
-        <v>86.12216531349439</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K33" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L33" t="n">
-        <v>197.9238565454036</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M33" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N33" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P33" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T33" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H34" t="n">
-        <v>6.794601095219365</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I34" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J34" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K34" t="n">
-        <v>88.78834560010573</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L34" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M34" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N34" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O34" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P34" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R34" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S34" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T34" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H35" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I35" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J35" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K35" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L35" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M35" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N35" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O35" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P35" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R35" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S35" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T35" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U35" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H36" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I36" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J36" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K36" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L36" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M36" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N36" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P36" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S36" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T36" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H37" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I37" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J37" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K37" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L37" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M37" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N37" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O37" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P37" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R37" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S37" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T37" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H38" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I38" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J38" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K38" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L38" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M38" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N38" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O38" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P38" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R38" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S38" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T38" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U38" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H39" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I39" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J39" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K39" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L39" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M39" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N39" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P39" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S39" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T39" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H40" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I40" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J40" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K40" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L40" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M40" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N40" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O40" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P40" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R40" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S40" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T40" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H41" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I41" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J41" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K41" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L41" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M41" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N41" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O41" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P41" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R41" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S41" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T41" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U41" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H42" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I42" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J42" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K42" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L42" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M42" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N42" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P42" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S42" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T42" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H43" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I43" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J43" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K43" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L43" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M43" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N43" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O43" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P43" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R43" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S43" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T43" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.703695026496</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H44" t="n">
-        <v>17.44796669010217</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I44" t="n">
-        <v>65.68170250898712</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J44" t="n">
-        <v>144.598985755065</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K44" t="n">
-        <v>216.7163962266408</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L44" t="n">
-        <v>268.8558528937678</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M44" t="n">
-        <v>299.1539393212161</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N44" t="n">
-        <v>303.9945628152478</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O44" t="n">
-        <v>287.0534453955282</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P44" t="n">
-        <v>244.9934744289081</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.9798962925201</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R44" t="n">
-        <v>107.0197327081295</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S44" t="n">
-        <v>38.82295041627765</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T44" t="n">
-        <v>7.457924978486245</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U44" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H45" t="n">
-        <v>8.803723504958668</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I45" t="n">
-        <v>31.38475454765011</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J45" t="n">
-        <v>86.12216531349441</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K45" t="n">
-        <v>147.1964978574311</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L45" t="n">
-        <v>197.9238565454037</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M45" t="n">
-        <v>230.9678051232798</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N45" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>216.8826471269268</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P45" t="n">
-        <v>174.0674450312854</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.3594772426508</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59650769127835</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S45" t="n">
-        <v>16.93177522411441</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T45" t="n">
-        <v>3.674215213922349</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H46" t="n">
-        <v>6.794601095219366</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I46" t="n">
-        <v>22.98214767176447</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J46" t="n">
-        <v>54.03027885227092</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K46" t="n">
-        <v>88.78834560010574</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L46" t="n">
-        <v>113.6185136106518</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M46" t="n">
-        <v>119.7947921113164</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N46" t="n">
-        <v>116.9463397094352</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O46" t="n">
-        <v>108.0188730352461</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P46" t="n">
-        <v>92.4288067186077</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.99291481397294</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R46" t="n">
-        <v>34.36206238952449</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S46" t="n">
-        <v>13.31825184001586</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T46" t="n">
-        <v>3.265299094839569</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
